--- a/DataOnParts.xlsx
+++ b/DataOnParts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\F1ManagerOptimalConfiguration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{840FBA2F-8C02-4346-8E1A-A26E954794D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC8F0F9-019C-4B7B-8516-94BE0A30B8ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="1515" windowWidth="19440" windowHeight="15150" activeTab="5" xr2:uid="{7B99EB5A-1958-428B-8D9A-88A9EE4EF4B6}"/>
+    <workbookView xWindow="25080" yWindow="1515" windowWidth="19440" windowHeight="15150" activeTab="2" xr2:uid="{7B99EB5A-1958-428B-8D9A-88A9EE4EF4B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Brakes" sheetId="1" r:id="rId1"/>
@@ -594,43 +594,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -947,1027 +947,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6BEEB3A-B90F-447E-9666-8367BEDBC262}">
   <dimension ref="B1:O43"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="15" width="5.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="10"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="13"/>
-    </row>
-    <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="17">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2">
-        <v>2</v>
-      </c>
-      <c r="H3" s="2">
-        <v>3</v>
-      </c>
-      <c r="I3" s="2">
-        <v>4</v>
-      </c>
-      <c r="J3" s="2">
-        <v>5</v>
-      </c>
-      <c r="K3" s="2">
-        <v>6</v>
-      </c>
-      <c r="L3" s="2">
-        <v>7</v>
-      </c>
-      <c r="M3" s="2">
-        <v>8</v>
-      </c>
-      <c r="N3" s="2">
-        <v>9</v>
-      </c>
-      <c r="O3" s="15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="24">
-        <v>0</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="18">
-        <v>7</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="5"/>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="19">
-        <v>2</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="6"/>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="25"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="19">
-        <v>2</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="6"/>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="25"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="19">
-        <v>2</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="6"/>
-    </row>
-    <row r="8" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="27"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="20">
-        <v>0</v>
-      </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="8"/>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="24">
-        <v>1</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="3">
-        <v>7</v>
-      </c>
-      <c r="H9" s="3">
-        <v>7</v>
-      </c>
-      <c r="I9" s="3">
-        <v>7</v>
-      </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="9"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="25"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="1">
-        <v>4</v>
-      </c>
-      <c r="H10" s="1">
-        <v>4</v>
-      </c>
-      <c r="I10" s="1">
-        <v>4</v>
-      </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="6"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="25"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="1">
-        <v>4</v>
-      </c>
-      <c r="H11" s="1">
-        <v>7</v>
-      </c>
-      <c r="I11" s="1">
-        <v>10</v>
-      </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="6"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="25"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="1">
-        <v>3</v>
-      </c>
-      <c r="H12" s="1">
-        <v>4</v>
-      </c>
-      <c r="I12" s="1">
-        <v>4</v>
-      </c>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="6"/>
-    </row>
-    <row r="13" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="27"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="7">
-        <v>0</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="8"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="24">
-        <v>2</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="21">
-        <v>7</v>
-      </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="9"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="25"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="19">
-        <v>3</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="6"/>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="25"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="19">
-        <v>10</v>
-      </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="6"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="25"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="19">
-        <v>12</v>
-      </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="6"/>
-    </row>
-    <row r="18" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="27"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="20">
-        <v>0</v>
-      </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="8"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="24">
-        <v>3</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="21">
-        <v>7</v>
-      </c>
-      <c r="G19" s="3">
-        <v>7</v>
-      </c>
-      <c r="H19" s="3">
-        <v>7</v>
-      </c>
-      <c r="I19" s="3">
-        <v>7</v>
-      </c>
-      <c r="J19" s="3">
-        <v>7</v>
-      </c>
-      <c r="K19" s="3">
-        <v>8</v>
-      </c>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="9"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="25"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="19">
-        <v>6</v>
-      </c>
-      <c r="G20" s="1">
-        <v>6</v>
-      </c>
-      <c r="H20" s="1">
-        <v>7</v>
-      </c>
-      <c r="I20" s="1">
-        <v>7</v>
-      </c>
-      <c r="J20" s="1">
-        <v>8</v>
-      </c>
-      <c r="K20" s="1">
-        <v>8</v>
-      </c>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="6"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="25"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="19">
-        <v>5</v>
-      </c>
-      <c r="G21" s="1">
-        <v>7</v>
-      </c>
-      <c r="H21" s="1">
-        <v>10</v>
-      </c>
-      <c r="I21" s="1">
-        <v>11</v>
-      </c>
-      <c r="J21" s="1">
-        <v>13</v>
-      </c>
-      <c r="K21" s="1">
-        <v>15</v>
-      </c>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="6"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="25"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="19">
-        <v>3</v>
-      </c>
-      <c r="G22" s="1">
-        <v>4</v>
-      </c>
-      <c r="H22" s="1">
-        <v>4</v>
-      </c>
-      <c r="I22" s="1">
-        <v>4</v>
-      </c>
-      <c r="J22" s="1">
-        <v>4</v>
-      </c>
-      <c r="K22" s="1">
-        <v>4</v>
-      </c>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="6"/>
-    </row>
-    <row r="23" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="27"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="20">
-        <v>0</v>
-      </c>
-      <c r="G23" s="7">
-        <v>0</v>
-      </c>
-      <c r="H23" s="7">
-        <v>0</v>
-      </c>
-      <c r="I23" s="7">
-        <v>0</v>
-      </c>
-      <c r="J23" s="7">
-        <v>0</v>
-      </c>
-      <c r="K23" s="7">
-        <v>0</v>
-      </c>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="8"/>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="24">
-        <v>4</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="21">
-        <v>7</v>
-      </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="9"/>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="25"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="19">
-        <v>9</v>
-      </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="6"/>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="25"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="19">
-        <v>6</v>
-      </c>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="6"/>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="25"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="19">
-        <v>3</v>
-      </c>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="6"/>
-    </row>
-    <row r="28" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="27"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="20">
-        <v>0</v>
-      </c>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="8"/>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="24">
-        <v>5</v>
-      </c>
-      <c r="D29" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="21">
-        <v>7</v>
-      </c>
-      <c r="G29" s="3">
-        <v>7</v>
-      </c>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="9"/>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="25"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="19">
-        <v>8</v>
-      </c>
-      <c r="G30" s="1">
-        <v>9</v>
-      </c>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="6"/>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="25"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="19">
-        <v>11</v>
-      </c>
-      <c r="G31" s="1">
-        <v>14</v>
-      </c>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="6"/>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="25"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" s="19">
-        <v>3</v>
-      </c>
-      <c r="G32" s="1">
-        <v>4</v>
-      </c>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="6"/>
-    </row>
-    <row r="33" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="27"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F33" s="20">
-        <v>0</v>
-      </c>
-      <c r="G33" s="7">
-        <v>0</v>
-      </c>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="8"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="24">
-        <v>6</v>
-      </c>
-      <c r="D34" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" s="21"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="9"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="25"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="19"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="6"/>
-    </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B36" s="25"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="19"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="6"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B37" s="25"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" s="19"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="6"/>
-    </row>
-    <row r="38" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="27"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F38" s="20"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="7"/>
-      <c r="O38" s="8"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B39" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="24">
-        <v>7</v>
-      </c>
-      <c r="D39" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F39" s="21"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="9"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B40" s="25"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F40" s="19"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="6"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B41" s="25"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" s="19"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="6"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B42" s="25"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F42" s="19"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="6"/>
-    </row>
-    <row r="43" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="27"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F43" s="20"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
-      <c r="M43" s="7"/>
-      <c r="N43" s="7"/>
-      <c r="O43" s="8"/>
-    </row>
-  </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="C39:C43"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="D9:D13"/>
-    <mergeCell ref="D14:D18"/>
-    <mergeCell ref="D19:D23"/>
-    <mergeCell ref="D24:D28"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="D34:D38"/>
-    <mergeCell ref="D39:D43"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="F2:O2"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="B24:B28"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEA68BA0-8738-49EF-838B-12AB78B9CDAD}">
-  <dimension ref="B1:O43"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1983,35 +967,35 @@
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B2" s="10"/>
       <c r="C2" s="11"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="16" t="s">
+      <c r="D2" s="20"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="13"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="30"/>
     </row>
     <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="14">
         <v>1</v>
       </c>
       <c r="G3" s="2">
@@ -2038,24 +1022,24 @@
       <c r="N3" s="2">
         <v>9</v>
       </c>
-      <c r="O3" s="15">
+      <c r="O3" s="13">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="22">
         <v>0</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="22" t="s">
         <v>28</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="15">
         <v>7</v>
       </c>
       <c r="G4" s="4"/>
@@ -2069,13 +1053,13 @@
       <c r="O4" s="5"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
       <c r="E5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="16">
         <v>2</v>
       </c>
       <c r="G5" s="1"/>
@@ -2089,13 +1073,13 @@
       <c r="O5" s="6"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="25"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
       <c r="E6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="16">
         <v>2</v>
       </c>
       <c r="G6" s="1"/>
@@ -2109,13 +1093,13 @@
       <c r="O6" s="6"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="25"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
       <c r="E7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="16">
         <v>2</v>
       </c>
       <c r="G7" s="1"/>
@@ -2130,12 +1114,12 @@
     </row>
     <row r="8" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="27"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
       <c r="E8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="17">
         <v>0</v>
       </c>
       <c r="G8" s="7"/>
@@ -2149,110 +1133,110 @@
       <c r="O8" s="8"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="24">
+      <c r="B9" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="22">
         <v>1</v>
       </c>
-      <c r="D9" s="24" t="s">
-        <v>25</v>
+      <c r="D9" s="22" t="s">
+        <v>27</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="3"/>
+      <c r="F9" s="18">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>7</v>
+      </c>
       <c r="H9" s="3">
         <v>7</v>
       </c>
       <c r="I9" s="3">
         <v>7</v>
       </c>
-      <c r="J9" s="3">
-        <v>7</v>
-      </c>
-      <c r="K9" s="3">
-        <v>8</v>
-      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="9"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="25"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
       <c r="E10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="1"/>
+      <c r="F10" s="16">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>4</v>
+      </c>
       <c r="H10" s="1">
         <v>4</v>
       </c>
       <c r="I10" s="1">
         <v>4</v>
       </c>
-      <c r="J10" s="1">
-        <v>4</v>
-      </c>
-      <c r="K10" s="1">
-        <v>5</v>
-      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="6"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="25"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
       <c r="E11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="1"/>
+      <c r="F11" s="16">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>4</v>
+      </c>
       <c r="H11" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I11" s="1">
-        <v>4</v>
-      </c>
-      <c r="J11" s="1">
-        <v>4</v>
-      </c>
-      <c r="K11" s="1">
-        <v>5</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="6"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="25"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
       <c r="E12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="1"/>
+      <c r="F12" s="16">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>3</v>
+      </c>
       <c r="H12" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I12" s="1">
         <v>4</v>
       </c>
-      <c r="J12" s="1">
-        <v>5</v>
-      </c>
-      <c r="K12" s="1">
-        <v>5</v>
-      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -2260,53 +1244,47 @@
     </row>
     <row r="13" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="27"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
       <c r="E13" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="17">
         <v>0</v>
       </c>
       <c r="G13" s="7">
         <v>0</v>
       </c>
       <c r="H13" s="7">
-        <v>-0.04</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>-0.08</v>
-      </c>
-      <c r="J13" s="7">
-        <v>-0.12</v>
-      </c>
-      <c r="K13" s="7">
-        <v>-0.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
       <c r="O13" s="8"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="24">
+      <c r="B14" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="22">
         <v>2</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="22" t="s">
         <v>26</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="21">
-        <v>7</v>
-      </c>
-      <c r="G14" s="3">
-        <v>7</v>
-      </c>
+      <c r="F14" s="18">
+        <v>7</v>
+      </c>
+      <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -2317,18 +1295,16 @@
       <c r="O14" s="9"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="25"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
       <c r="E15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="19">
-        <v>6</v>
-      </c>
-      <c r="G15" s="1">
-        <v>7</v>
-      </c>
+      <c r="F15" s="16">
+        <v>3</v>
+      </c>
+      <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -2339,18 +1315,16 @@
       <c r="O15" s="6"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="25"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
       <c r="E16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="19">
-        <v>3</v>
-      </c>
-      <c r="G16" s="1">
-        <v>4</v>
-      </c>
+      <c r="F16" s="16">
+        <v>10</v>
+      </c>
+      <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -2361,18 +1335,16 @@
       <c r="O16" s="6"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="25"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
       <c r="E17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="19">
-        <v>3</v>
-      </c>
-      <c r="G17" s="1">
-        <v>4</v>
-      </c>
+      <c r="F17" s="16">
+        <v>12</v>
+      </c>
+      <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -2384,17 +1356,15 @@
     </row>
     <row r="18" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="27"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
       <c r="E18" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="20">
-        <v>-0.18</v>
-      </c>
-      <c r="G18" s="7">
-        <v>-0.22</v>
-      </c>
+      <c r="F18" s="17">
+        <v>0</v>
+      </c>
+      <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
@@ -2405,19 +1375,1107 @@
       <c r="O18" s="8"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="24">
+      <c r="B19" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="22">
         <v>3</v>
       </c>
-      <c r="D19" s="24" t="s">
-        <v>26</v>
+      <c r="D19" s="22" t="s">
+        <v>25</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="18">
+        <v>7</v>
+      </c>
+      <c r="G19" s="3">
+        <v>7</v>
+      </c>
+      <c r="H19" s="3">
+        <v>7</v>
+      </c>
+      <c r="I19" s="3">
+        <v>7</v>
+      </c>
+      <c r="J19" s="3">
+        <v>7</v>
+      </c>
+      <c r="K19" s="3">
+        <v>8</v>
+      </c>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="9"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20" s="26"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="16">
+        <v>6</v>
+      </c>
+      <c r="G20" s="1">
+        <v>6</v>
+      </c>
+      <c r="H20" s="1">
+        <v>7</v>
+      </c>
+      <c r="I20" s="1">
+        <v>7</v>
+      </c>
+      <c r="J20" s="1">
+        <v>8</v>
+      </c>
+      <c r="K20" s="1">
+        <v>8</v>
+      </c>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="6"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B21" s="26"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="16">
+        <v>5</v>
+      </c>
+      <c r="G21" s="1">
+        <v>7</v>
+      </c>
+      <c r="H21" s="1">
+        <v>10</v>
+      </c>
+      <c r="I21" s="1">
+        <v>11</v>
+      </c>
+      <c r="J21" s="1">
+        <v>13</v>
+      </c>
+      <c r="K21" s="1">
+        <v>15</v>
+      </c>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="6"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22" s="26"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="16">
+        <v>3</v>
+      </c>
+      <c r="G22" s="1">
+        <v>4</v>
+      </c>
+      <c r="H22" s="1">
+        <v>4</v>
+      </c>
+      <c r="I22" s="1">
+        <v>4</v>
+      </c>
+      <c r="J22" s="1">
+        <v>4</v>
+      </c>
+      <c r="K22" s="1">
+        <v>4</v>
+      </c>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="6"/>
+    </row>
+    <row r="23" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="27"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="17">
+        <v>0</v>
+      </c>
+      <c r="G23" s="7">
+        <v>0</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0</v>
+      </c>
+      <c r="I23" s="7">
+        <v>0</v>
+      </c>
+      <c r="J23" s="7">
+        <v>0</v>
+      </c>
+      <c r="K23" s="7">
+        <v>0</v>
+      </c>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="8"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B24" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="22">
+        <v>4</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="18">
+        <v>7</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="9"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B25" s="26"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="16">
+        <v>9</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="6"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B26" s="26"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="16">
+        <v>6</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="6"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B27" s="26"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="16">
+        <v>3</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="6"/>
+    </row>
+    <row r="28" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="27"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="17">
+        <v>0</v>
+      </c>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="8"/>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B29" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="22">
+        <v>5</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="18">
+        <v>7</v>
+      </c>
+      <c r="G29" s="3">
+        <v>7</v>
+      </c>
+      <c r="H29" s="3">
+        <v>7</v>
+      </c>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="9"/>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B30" s="26"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="16">
+        <v>8</v>
+      </c>
+      <c r="G30" s="1">
+        <v>9</v>
+      </c>
+      <c r="H30" s="1">
+        <v>10</v>
+      </c>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="6"/>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B31" s="26"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="16">
+        <v>11</v>
+      </c>
+      <c r="G31" s="1">
+        <v>14</v>
+      </c>
+      <c r="H31" s="1">
+        <v>17</v>
+      </c>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="6"/>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B32" s="26"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="16">
+        <v>3</v>
+      </c>
+      <c r="G32" s="1">
+        <v>4</v>
+      </c>
+      <c r="H32" s="1">
+        <v>4</v>
+      </c>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="6"/>
+    </row>
+    <row r="33" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="27"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="17">
+        <v>0</v>
+      </c>
+      <c r="G33" s="7">
+        <v>0</v>
+      </c>
+      <c r="H33" s="7">
+        <v>0</v>
+      </c>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="8"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B34" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="22">
+        <v>6</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="18">
+        <v>7</v>
+      </c>
+      <c r="G34" s="3">
+        <v>7</v>
+      </c>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="9"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B35" s="26"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="16">
+        <v>3</v>
+      </c>
+      <c r="G35" s="1">
+        <v>4</v>
+      </c>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="6"/>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B36" s="26"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="16">
+        <v>11</v>
+      </c>
+      <c r="G36" s="1">
+        <v>14</v>
+      </c>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="6"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B37" s="26"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="16">
+        <v>4</v>
+      </c>
+      <c r="G37" s="1">
+        <v>4</v>
+      </c>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="6"/>
+    </row>
+    <row r="38" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="27"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="17">
+        <v>0</v>
+      </c>
+      <c r="G38" s="7">
+        <v>0</v>
+      </c>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="8"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B39" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="22">
+        <v>7</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="18"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="9"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B40" s="26"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="16"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="6"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B41" s="26"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="16"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="6"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B42" s="26"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" s="16"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="6"/>
+    </row>
+    <row r="43" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="27"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="17"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="F2:O2"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C39:C43"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="D9:D13"/>
+    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="D19:D23"/>
+    <mergeCell ref="D24:D28"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="D39:D43"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEA68BA0-8738-49EF-838B-12AB78B9CDAD}">
+  <dimension ref="B1:O43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="P16" sqref="P16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="15" width="5.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="10"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="30"/>
+    </row>
+    <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="14">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2">
+        <v>2</v>
+      </c>
+      <c r="H3" s="2">
+        <v>3</v>
+      </c>
+      <c r="I3" s="2">
+        <v>4</v>
+      </c>
+      <c r="J3" s="2">
+        <v>5</v>
+      </c>
+      <c r="K3" s="2">
+        <v>6</v>
+      </c>
+      <c r="L3" s="2">
+        <v>7</v>
+      </c>
+      <c r="M3" s="2">
+        <v>8</v>
+      </c>
+      <c r="N3" s="2">
+        <v>9</v>
+      </c>
+      <c r="O3" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="22">
+        <v>0</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="15">
+        <v>7</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="5"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="26"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="16">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="6"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="26"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="16">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="6"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="26"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="16">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="6"/>
+    </row>
+    <row r="8" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="27"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="17">
+        <v>0</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="8"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="22">
+        <v>1</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="18"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3">
+        <v>7</v>
+      </c>
+      <c r="I9" s="3">
+        <v>7</v>
+      </c>
+      <c r="J9" s="3">
+        <v>7</v>
+      </c>
+      <c r="K9" s="3">
+        <v>8</v>
+      </c>
+      <c r="L9" s="3">
+        <v>8</v>
+      </c>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="9"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="26"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="16"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1">
+        <v>4</v>
+      </c>
+      <c r="I10" s="1">
+        <v>4</v>
+      </c>
+      <c r="J10" s="1">
+        <v>4</v>
+      </c>
+      <c r="K10" s="1">
+        <v>5</v>
+      </c>
+      <c r="L10" s="1">
+        <v>5</v>
+      </c>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="6"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="26"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1">
+        <v>4</v>
+      </c>
+      <c r="I11" s="1">
+        <v>4</v>
+      </c>
+      <c r="J11" s="1">
+        <v>4</v>
+      </c>
+      <c r="K11" s="1">
+        <v>5</v>
+      </c>
+      <c r="L11" s="1">
+        <v>5</v>
+      </c>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="6"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="26"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1">
+        <v>3</v>
+      </c>
+      <c r="I12" s="1">
+        <v>4</v>
+      </c>
+      <c r="J12" s="1">
+        <v>5</v>
+      </c>
+      <c r="K12" s="1">
+        <v>5</v>
+      </c>
+      <c r="L12" s="1">
+        <v>6</v>
+      </c>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="6"/>
+    </row>
+    <row r="13" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="27"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="17">
+        <v>0</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0</v>
+      </c>
+      <c r="H13" s="7">
+        <v>-0.04</v>
+      </c>
+      <c r="I13" s="7">
+        <v>-0.08</v>
+      </c>
+      <c r="J13" s="7">
+        <v>-0.12</v>
+      </c>
+      <c r="K13" s="7">
+        <v>-0.16</v>
+      </c>
+      <c r="L13" s="7">
+        <v>-0.2</v>
+      </c>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="8"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="22">
+        <v>2</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="18">
+        <v>7</v>
+      </c>
+      <c r="G14" s="3">
+        <v>7</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="9"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="26"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="16">
+        <v>6</v>
+      </c>
+      <c r="G15" s="1">
+        <v>7</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="6"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="26"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="16">
+        <v>3</v>
+      </c>
+      <c r="G16" s="1">
+        <v>4</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="6"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="26"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="16">
+        <v>3</v>
+      </c>
+      <c r="G17" s="1">
+        <v>4</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="6"/>
+    </row>
+    <row r="18" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="27"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="17">
+        <v>-0.18</v>
+      </c>
+      <c r="G18" s="7">
+        <v>-0.22</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="8"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="22">
+        <v>3</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="18">
         <v>7</v>
       </c>
       <c r="G19" s="3">
@@ -2433,13 +2491,13 @@
       <c r="O19" s="9"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="25"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
       <c r="E20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F20" s="16">
         <v>3</v>
       </c>
       <c r="G20" s="1">
@@ -2455,13 +2513,13 @@
       <c r="O20" s="6"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="25"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
       <c r="E21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F21" s="16">
         <v>3</v>
       </c>
       <c r="G21" s="1">
@@ -2477,13 +2535,13 @@
       <c r="O21" s="6"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="25"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
       <c r="E22" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="19">
+      <c r="F22" s="16">
         <v>7</v>
       </c>
       <c r="G22" s="1">
@@ -2500,12 +2558,12 @@
     </row>
     <row r="23" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="27"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
       <c r="E23" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="20">
+      <c r="F23" s="17">
         <v>0</v>
       </c>
       <c r="G23" s="7">
@@ -2521,19 +2579,19 @@
       <c r="O23" s="8"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="24">
-        <v>4</v>
-      </c>
-      <c r="D24" s="24" t="s">
+      <c r="C24" s="22">
+        <v>4</v>
+      </c>
+      <c r="D24" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="21">
+      <c r="F24" s="18">
         <v>7</v>
       </c>
       <c r="G24" s="3">
@@ -2548,20 +2606,22 @@
       <c r="J24" s="3">
         <v>7</v>
       </c>
-      <c r="K24" s="3"/>
+      <c r="K24" s="3">
+        <v>8</v>
+      </c>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="9"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="25"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
       <c r="E25" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="19">
+      <c r="F25" s="16">
         <v>3</v>
       </c>
       <c r="G25" s="1">
@@ -2576,20 +2636,22 @@
       <c r="J25" s="1">
         <v>4</v>
       </c>
-      <c r="K25" s="1"/>
+      <c r="K25" s="1">
+        <v>5</v>
+      </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="6"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="25"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
       <c r="E26" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="19">
+      <c r="F26" s="16">
         <v>3</v>
       </c>
       <c r="G26" s="1">
@@ -2604,20 +2666,22 @@
       <c r="J26" s="1">
         <v>4</v>
       </c>
-      <c r="K26" s="1"/>
+      <c r="K26" s="1">
+        <v>5</v>
+      </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="6"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="25"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
       <c r="E27" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="19">
+      <c r="F27" s="16">
         <v>7</v>
       </c>
       <c r="G27" s="1">
@@ -2632,7 +2696,9 @@
       <c r="J27" s="1">
         <v>12</v>
       </c>
-      <c r="K27" s="1"/>
+      <c r="K27" s="1">
+        <v>13</v>
+      </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
@@ -2640,50 +2706,56 @@
     </row>
     <row r="28" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="27"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
       <c r="E28" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="20">
+      <c r="F28" s="17">
         <v>-0.12</v>
       </c>
-      <c r="G28" s="20">
+      <c r="G28" s="17">
         <v>-0.12</v>
       </c>
-      <c r="H28" s="20">
+      <c r="H28" s="17">
         <v>-0.12</v>
       </c>
-      <c r="I28" s="20">
+      <c r="I28" s="17">
         <v>-0.12</v>
       </c>
-      <c r="J28" s="20">
+      <c r="J28" s="17">
         <v>-0.12</v>
       </c>
-      <c r="K28" s="7"/>
+      <c r="K28" s="17">
+        <v>-0.12</v>
+      </c>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
       <c r="O28" s="8"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="24">
+      <c r="C29" s="22">
         <v>5</v>
       </c>
-      <c r="D29" s="24" t="s">
+      <c r="D29" s="22" t="s">
         <v>27</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="21">
-        <v>7</v>
-      </c>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
+      <c r="F29" s="18">
+        <v>7</v>
+      </c>
+      <c r="G29" s="3">
+        <v>7</v>
+      </c>
+      <c r="H29" s="3">
+        <v>7</v>
+      </c>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
@@ -2693,17 +2765,21 @@
       <c r="O29" s="9"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="25"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
       <c r="E30" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F30" s="19">
+      <c r="F30" s="16">
         <v>3</v>
       </c>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
+      <c r="G30" s="1">
+        <v>4</v>
+      </c>
+      <c r="H30" s="1">
+        <v>4</v>
+      </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -2713,17 +2789,21 @@
       <c r="O30" s="6"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="25"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
       <c r="E31" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F31" s="19">
+      <c r="F31" s="16">
         <v>5</v>
       </c>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
+      <c r="G31" s="1">
+        <v>6</v>
+      </c>
+      <c r="H31" s="1">
+        <v>6</v>
+      </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -2733,17 +2813,21 @@
       <c r="O31" s="6"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="25"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
       <c r="E32" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F32" s="19">
+      <c r="F32" s="16">
         <v>3</v>
       </c>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
+      <c r="G32" s="1">
+        <v>4</v>
+      </c>
+      <c r="H32" s="1">
+        <v>4</v>
+      </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -2754,16 +2838,20 @@
     </row>
     <row r="33" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="27"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
       <c r="E33" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F33" s="20">
+      <c r="F33" s="17">
         <v>-0.12</v>
       </c>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
+      <c r="G33" s="7">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="H33" s="7">
+        <v>-0.18</v>
+      </c>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
@@ -2773,19 +2861,19 @@
       <c r="O33" s="8"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="24">
+      <c r="C34" s="22">
         <v>6</v>
       </c>
-      <c r="D34" s="24" t="s">
+      <c r="D34" s="22" t="s">
         <v>26</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F34" s="21"/>
+      <c r="F34" s="18"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
@@ -2797,13 +2885,13 @@
       <c r="O34" s="9"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="25"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
       <c r="E35" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F35" s="19"/>
+      <c r="F35" s="16"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -2815,13 +2903,13 @@
       <c r="O35" s="6"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B36" s="25"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
       <c r="E36" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F36" s="19"/>
+      <c r="F36" s="16"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -2833,13 +2921,13 @@
       <c r="O36" s="6"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B37" s="25"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
       <c r="E37" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F37" s="19"/>
+      <c r="F37" s="16"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -2852,12 +2940,12 @@
     </row>
     <row r="38" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="27"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
       <c r="E38" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F38" s="20"/>
+      <c r="F38" s="17"/>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
@@ -2869,19 +2957,19 @@
       <c r="O38" s="8"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="24">
-        <v>7</v>
-      </c>
-      <c r="D39" s="24" t="s">
+      <c r="C39" s="22">
+        <v>7</v>
+      </c>
+      <c r="D39" s="22" t="s">
         <v>26</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F39" s="21"/>
+      <c r="F39" s="18"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -2893,13 +2981,13 @@
       <c r="O39" s="9"/>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B40" s="25"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
       <c r="E40" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F40" s="19"/>
+      <c r="F40" s="16"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -2911,13 +2999,13 @@
       <c r="O40" s="6"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B41" s="25"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
       <c r="E41" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F41" s="19"/>
+      <c r="F41" s="16"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -2929,13 +3017,13 @@
       <c r="O41" s="6"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B42" s="25"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
       <c r="E42" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F42" s="19"/>
+      <c r="F42" s="16"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -2948,12 +3036,12 @@
     </row>
     <row r="43" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="27"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
       <c r="E43" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="20"/>
+      <c r="F43" s="17"/>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
@@ -2966,6 +3054,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="F2:O2"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
     <mergeCell ref="D39:D43"/>
     <mergeCell ref="D4:D8"/>
     <mergeCell ref="B34:B38"/>
@@ -2982,15 +3079,6 @@
     <mergeCell ref="C19:C23"/>
     <mergeCell ref="B24:B28"/>
     <mergeCell ref="C24:C28"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="F2:O2"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3001,997 +3089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E7C67C1-28FC-4DA9-865A-E09E71E0A33D}">
   <dimension ref="B1:O43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="15" width="5.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="10"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="13"/>
-    </row>
-    <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="17">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2">
-        <v>2</v>
-      </c>
-      <c r="H3" s="2">
-        <v>3</v>
-      </c>
-      <c r="I3" s="2">
-        <v>4</v>
-      </c>
-      <c r="J3" s="2">
-        <v>5</v>
-      </c>
-      <c r="K3" s="2">
-        <v>6</v>
-      </c>
-      <c r="L3" s="2">
-        <v>7</v>
-      </c>
-      <c r="M3" s="2">
-        <v>8</v>
-      </c>
-      <c r="N3" s="2">
-        <v>9</v>
-      </c>
-      <c r="O3" s="15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="24">
-        <v>0</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="18">
-        <v>7</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="5"/>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="19">
-        <v>2</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="6"/>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="25"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="19">
-        <v>2</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="6"/>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="25"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="19">
-        <v>2</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="6"/>
-    </row>
-    <row r="8" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="27"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="20">
-        <v>0</v>
-      </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="8"/>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="24">
-        <v>1</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="9"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="25"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="6"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="25"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="6"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="25"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="6"/>
-    </row>
-    <row r="13" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="27"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="8"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="24">
-        <v>2</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="21">
-        <v>7</v>
-      </c>
-      <c r="G14" s="3">
-        <v>7</v>
-      </c>
-      <c r="H14" s="3">
-        <v>7</v>
-      </c>
-      <c r="I14" s="3">
-        <v>7</v>
-      </c>
-      <c r="J14" s="3">
-        <v>7</v>
-      </c>
-      <c r="K14" s="3">
-        <v>8</v>
-      </c>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="9"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="25"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="19">
-        <v>2</v>
-      </c>
-      <c r="G15" s="1">
-        <v>2</v>
-      </c>
-      <c r="H15" s="1">
-        <v>4</v>
-      </c>
-      <c r="I15" s="1">
-        <v>6</v>
-      </c>
-      <c r="J15" s="1">
-        <v>8</v>
-      </c>
-      <c r="K15" s="1">
-        <v>10</v>
-      </c>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="6"/>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="25"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="19">
-        <v>3</v>
-      </c>
-      <c r="G16" s="1">
-        <v>4</v>
-      </c>
-      <c r="H16" s="1">
-        <v>5</v>
-      </c>
-      <c r="I16" s="1">
-        <v>5</v>
-      </c>
-      <c r="J16" s="1">
-        <v>6</v>
-      </c>
-      <c r="K16" s="1">
-        <v>7</v>
-      </c>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="6"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="25"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="19">
-        <v>3</v>
-      </c>
-      <c r="G17" s="1">
-        <v>4</v>
-      </c>
-      <c r="H17" s="1">
-        <v>4</v>
-      </c>
-      <c r="I17" s="1">
-        <v>4</v>
-      </c>
-      <c r="J17" s="1">
-        <v>4</v>
-      </c>
-      <c r="K17" s="1">
-        <v>5</v>
-      </c>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="6"/>
-    </row>
-    <row r="18" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="27"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="20">
-        <v>0</v>
-      </c>
-      <c r="G18" s="7">
-        <v>0</v>
-      </c>
-      <c r="H18" s="7">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7">
-        <v>0</v>
-      </c>
-      <c r="J18" s="7">
-        <v>0</v>
-      </c>
-      <c r="K18" s="7">
-        <v>0</v>
-      </c>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="8"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="24">
-        <v>3</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="21">
-        <v>9</v>
-      </c>
-      <c r="G19" s="3">
-        <v>9</v>
-      </c>
-      <c r="H19" s="3">
-        <v>10</v>
-      </c>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="9"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="25"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="19">
-        <v>5</v>
-      </c>
-      <c r="G20" s="1">
-        <v>6</v>
-      </c>
-      <c r="H20" s="1">
-        <v>8</v>
-      </c>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="6"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="25"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="19">
-        <v>3</v>
-      </c>
-      <c r="G21" s="1">
-        <v>4</v>
-      </c>
-      <c r="H21" s="1">
-        <v>4</v>
-      </c>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="6"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="25"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="19">
-        <v>3</v>
-      </c>
-      <c r="G22" s="1">
-        <v>4</v>
-      </c>
-      <c r="H22" s="1">
-        <v>4</v>
-      </c>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="6"/>
-    </row>
-    <row r="23" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="27"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="20">
-        <v>0</v>
-      </c>
-      <c r="G23" s="7">
-        <v>0</v>
-      </c>
-      <c r="H23" s="7">
-        <v>0</v>
-      </c>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="8"/>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="24">
-        <v>4</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="21"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="9"/>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="25"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="19"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="6"/>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="25"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="19"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="6"/>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="25"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="19"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="6"/>
-    </row>
-    <row r="28" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="27"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="8"/>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="24">
-        <v>5</v>
-      </c>
-      <c r="D29" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="21">
-        <v>7</v>
-      </c>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="9"/>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="25"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="19">
-        <v>6</v>
-      </c>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="6"/>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="25"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="19">
-        <v>3</v>
-      </c>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="6"/>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="25"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" s="19">
-        <v>3</v>
-      </c>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="6"/>
-    </row>
-    <row r="33" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="27"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F33" s="20">
-        <v>-0.14000000000000001</v>
-      </c>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="8"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="24">
-        <v>6</v>
-      </c>
-      <c r="D34" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" s="21"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="9"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="25"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="19"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="6"/>
-    </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B36" s="25"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="19"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="6"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B37" s="25"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" s="19"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="6"/>
-    </row>
-    <row r="38" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="27"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F38" s="20"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="7"/>
-      <c r="O38" s="8"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B39" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C39" s="24">
-        <v>7</v>
-      </c>
-      <c r="D39" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F39" s="21"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="9"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B40" s="25"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F40" s="19"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="6"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B41" s="25"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" s="19"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="6"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B42" s="25"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F42" s="19"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="6"/>
-    </row>
-    <row r="43" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="27"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F43" s="20"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
-      <c r="M43" s="7"/>
-      <c r="N43" s="7"/>
-      <c r="O43" s="8"/>
-    </row>
-  </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="D34:D38"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="C39:C43"/>
-    <mergeCell ref="D39:D43"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="D24:D28"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="D14:D18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="D19:D23"/>
-    <mergeCell ref="F2:O2"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="D9:D13"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{876169AB-6A82-4517-A556-4971CA85FD89}">
-  <dimension ref="B1:O43"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4007,35 +3106,35 @@
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B2" s="10"/>
       <c r="C2" s="11"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="16" t="s">
+      <c r="D2" s="20"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="13"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="30"/>
     </row>
     <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="14">
         <v>1</v>
       </c>
       <c r="G3" s="2">
@@ -4062,24 +3161,24 @@
       <c r="N3" s="2">
         <v>9</v>
       </c>
-      <c r="O3" s="15">
+      <c r="O3" s="13">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="22">
         <v>0</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="22" t="s">
         <v>28</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="15">
         <v>7</v>
       </c>
       <c r="G4" s="4"/>
@@ -4093,13 +3192,13 @@
       <c r="O4" s="5"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
       <c r="E5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="16">
         <v>2</v>
       </c>
       <c r="G5" s="1"/>
@@ -4113,13 +3212,13 @@
       <c r="O5" s="6"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="25"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
       <c r="E6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="16">
         <v>2</v>
       </c>
       <c r="G6" s="1"/>
@@ -4133,13 +3232,13 @@
       <c r="O6" s="6"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="25"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
       <c r="E7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="16">
         <v>2</v>
       </c>
       <c r="G7" s="1"/>
@@ -4154,12 +3253,12 @@
     </row>
     <row r="8" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="27"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
       <c r="E8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="17">
         <v>0</v>
       </c>
       <c r="G8" s="7"/>
@@ -4173,19 +3272,19 @@
       <c r="O8" s="8"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="24">
+      <c r="B9" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="22">
         <v>1</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="22" t="s">
         <v>26</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="18">
         <v>7</v>
       </c>
       <c r="G9" s="3"/>
@@ -4199,14 +3298,14 @@
       <c r="O9" s="9"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="25"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
       <c r="E10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="19">
-        <v>3</v>
+      <c r="F10" s="16">
+        <v>2</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -4219,13 +3318,13 @@
       <c r="O10" s="6"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="25"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
       <c r="E11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="16">
         <v>3</v>
       </c>
       <c r="G11" s="1"/>
@@ -4239,13 +3338,13 @@
       <c r="O11" s="6"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="25"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
       <c r="E12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="16">
         <v>10</v>
       </c>
       <c r="G12" s="1"/>
@@ -4260,13 +3359,13 @@
     </row>
     <row r="13" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="27"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
       <c r="E13" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="20">
-        <v>-7.0000000000000007E-2</v>
+      <c r="F13" s="17">
+        <v>0</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -4279,19 +3378,19 @@
       <c r="O13" s="8"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="24">
+      <c r="B14" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="22">
         <v>2</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="18">
         <v>7</v>
       </c>
       <c r="G14" s="3">
@@ -4309,79 +3408,85 @@
       <c r="K14" s="3">
         <v>8</v>
       </c>
-      <c r="L14" s="3"/>
+      <c r="L14" s="3">
+        <v>8</v>
+      </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="9"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="25"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
       <c r="E15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="19">
-        <v>3</v>
+      <c r="F15" s="16">
+        <v>2</v>
       </c>
       <c r="G15" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H15" s="1">
         <v>4</v>
       </c>
       <c r="I15" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J15" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K15" s="1">
-        <v>5</v>
-      </c>
-      <c r="L15" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="L15" s="1">
+        <v>11</v>
+      </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="6"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="25"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
       <c r="E16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="19">
-        <v>2</v>
+      <c r="F16" s="16">
+        <v>3</v>
       </c>
       <c r="G16" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H16" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I16" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J16" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K16" s="1">
-        <v>4</v>
-      </c>
-      <c r="L16" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="L16" s="1">
+        <v>7</v>
+      </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="6"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="25"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
       <c r="E17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="16">
         <v>3</v>
       </c>
       <c r="G17" s="1">
@@ -4399,65 +3504,69 @@
       <c r="K17" s="1">
         <v>5</v>
       </c>
-      <c r="L17" s="1"/>
+      <c r="L17" s="1">
+        <v>5</v>
+      </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="6"/>
     </row>
     <row r="18" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="27"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
       <c r="E18" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="20">
+      <c r="F18" s="17">
         <v>0</v>
       </c>
       <c r="G18" s="7">
-        <v>-7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="H18" s="7">
-        <v>-0.19</v>
+        <v>0</v>
       </c>
       <c r="I18" s="7">
-        <v>-0.35</v>
+        <v>0</v>
       </c>
       <c r="J18" s="7">
-        <v>-0.48</v>
+        <v>0</v>
       </c>
       <c r="K18" s="7">
-        <v>-0.55000000000000004</v>
-      </c>
-      <c r="L18" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="7">
+        <v>0</v>
+      </c>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
       <c r="O18" s="8"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="24">
+      <c r="B19" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="22">
         <v>3</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="22" t="s">
         <v>27</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="18">
         <v>9</v>
       </c>
       <c r="G19" s="3">
+        <v>9</v>
+      </c>
+      <c r="H19" s="3">
         <v>10</v>
       </c>
-      <c r="H19" s="3">
-        <v>11</v>
-      </c>
       <c r="I19" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -4467,23 +3576,23 @@
       <c r="O19" s="9"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="25"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
       <c r="E20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="19">
-        <v>3</v>
+      <c r="F20" s="16">
+        <v>5</v>
       </c>
       <c r="G20" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H20" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I20" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -4493,13 +3602,13 @@
       <c r="O20" s="6"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="25"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
       <c r="E21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F21" s="16">
         <v>3</v>
       </c>
       <c r="G21" s="1">
@@ -4519,14 +3628,14 @@
       <c r="O21" s="6"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="25"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
       <c r="E22" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="19">
-        <v>4</v>
+      <c r="F22" s="16">
+        <v>3</v>
       </c>
       <c r="G22" s="1">
         <v>4</v>
@@ -4546,22 +3655,22 @@
     </row>
     <row r="23" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="27"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
       <c r="E23" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="20">
-        <v>-7.0000000000000007E-2</v>
+      <c r="F23" s="17">
+        <v>0</v>
       </c>
       <c r="G23" s="7">
-        <v>-0.13</v>
+        <v>0</v>
       </c>
       <c r="H23" s="7">
-        <v>-0.13</v>
+        <v>0</v>
       </c>
       <c r="I23" s="7">
-        <v>-0.13</v>
+        <v>0</v>
       </c>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
@@ -4571,24 +3680,22 @@
       <c r="O23" s="8"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="24">
-        <v>4</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>25</v>
+      <c r="B24" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="22">
+        <v>4</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>26</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="21">
-        <v>7</v>
-      </c>
-      <c r="G24" s="3">
-        <v>7</v>
-      </c>
+      <c r="F24" s="18">
+        <v>13</v>
+      </c>
+      <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
@@ -4599,18 +3706,16 @@
       <c r="O24" s="9"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="25"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
       <c r="E25" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="19">
+      <c r="F25" s="16">
         <v>2</v>
       </c>
-      <c r="G25" s="1">
-        <v>2</v>
-      </c>
+      <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -4621,18 +3726,16 @@
       <c r="O25" s="6"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="25"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
       <c r="E26" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="19">
+      <c r="F26" s="16">
         <v>3</v>
       </c>
-      <c r="G26" s="1">
-        <v>4</v>
-      </c>
+      <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -4643,18 +3746,16 @@
       <c r="O26" s="6"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="25"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
       <c r="E27" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="19">
+      <c r="F27" s="16">
         <v>3</v>
       </c>
-      <c r="G27" s="1">
-        <v>3</v>
-      </c>
+      <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -4666,20 +3767,18 @@
     </row>
     <row r="28" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="27"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
       <c r="E28" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="20">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="G28" s="20">
-        <v>-0.13</v>
-      </c>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
+      <c r="F28" s="17">
+        <v>0</v>
+      </c>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
@@ -4687,20 +3786,24 @@
       <c r="O28" s="8"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="24">
+      <c r="B29" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="22">
         <v>5</v>
       </c>
-      <c r="D29" s="24" t="s">
-        <v>26</v>
+      <c r="D29" s="22" t="s">
+        <v>27</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="21"/>
-      <c r="G29" s="3"/>
+      <c r="F29" s="18">
+        <v>7</v>
+      </c>
+      <c r="G29" s="3">
+        <v>7</v>
+      </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
@@ -4711,14 +3814,18 @@
       <c r="O29" s="9"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="25"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
       <c r="E30" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F30" s="19"/>
-      <c r="G30" s="1"/>
+      <c r="F30" s="16">
+        <v>6</v>
+      </c>
+      <c r="G30" s="1">
+        <v>8</v>
+      </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -4729,14 +3836,18 @@
       <c r="O30" s="6"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="25"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
       <c r="E31" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F31" s="19"/>
-      <c r="G31" s="1"/>
+      <c r="F31" s="16">
+        <v>3</v>
+      </c>
+      <c r="G31" s="1">
+        <v>4</v>
+      </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -4747,14 +3858,18 @@
       <c r="O31" s="6"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="25"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
       <c r="E32" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F32" s="19"/>
-      <c r="G32" s="1"/>
+      <c r="F32" s="16">
+        <v>3</v>
+      </c>
+      <c r="G32" s="1">
+        <v>4</v>
+      </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -4766,13 +3881,17 @@
     </row>
     <row r="33" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="27"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
       <c r="E33" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F33" s="20"/>
-      <c r="G33" s="7"/>
+      <c r="F33" s="17">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="G33" s="7">
+        <v>-0.14000000000000001</v>
+      </c>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
@@ -4783,22 +3902,30 @@
       <c r="O33" s="8"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="24">
+      <c r="B34" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="22">
         <v>6</v>
       </c>
-      <c r="D34" s="24" t="s">
-        <v>27</v>
+      <c r="D34" s="22" t="s">
+        <v>25</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F34" s="21"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
+      <c r="F34" s="18">
+        <v>9</v>
+      </c>
+      <c r="G34" s="3">
+        <v>10</v>
+      </c>
+      <c r="H34" s="3">
+        <v>10</v>
+      </c>
+      <c r="I34" s="3">
+        <v>10</v>
+      </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
@@ -4807,16 +3934,24 @@
       <c r="O34" s="9"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="25"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
       <c r="E35" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F35" s="19"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
+      <c r="F35" s="16">
+        <v>6</v>
+      </c>
+      <c r="G35" s="1">
+        <v>7</v>
+      </c>
+      <c r="H35" s="1">
+        <v>8</v>
+      </c>
+      <c r="I35" s="1">
+        <v>9</v>
+      </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -4825,16 +3960,24 @@
       <c r="O35" s="6"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B36" s="25"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
       <c r="E36" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F36" s="19"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
+      <c r="F36" s="16">
+        <v>3</v>
+      </c>
+      <c r="G36" s="1">
+        <v>4</v>
+      </c>
+      <c r="H36" s="1">
+        <v>4</v>
+      </c>
+      <c r="I36" s="1">
+        <v>4</v>
+      </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -4843,16 +3986,24 @@
       <c r="O36" s="6"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B37" s="25"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
       <c r="E37" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F37" s="19"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
+      <c r="F37" s="16">
+        <v>3</v>
+      </c>
+      <c r="G37" s="1">
+        <v>4</v>
+      </c>
+      <c r="H37" s="1">
+        <v>4</v>
+      </c>
+      <c r="I37" s="1">
+        <v>4</v>
+      </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -4862,15 +4013,23 @@
     </row>
     <row r="38" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="27"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
       <c r="E38" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F38" s="20"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
+      <c r="F38" s="17">
+        <v>0</v>
+      </c>
+      <c r="G38" s="7">
+        <v>0</v>
+      </c>
+      <c r="H38" s="7">
+        <v>0</v>
+      </c>
+      <c r="I38" s="7">
+        <v>0</v>
+      </c>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
@@ -4879,19 +4038,19 @@
       <c r="O38" s="8"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B39" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C39" s="24">
-        <v>7</v>
-      </c>
-      <c r="D39" s="24" t="s">
+      <c r="B39" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="22">
+        <v>7</v>
+      </c>
+      <c r="D39" s="22" t="s">
         <v>26</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F39" s="21"/>
+      <c r="F39" s="18"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -4903,13 +4062,13 @@
       <c r="O39" s="9"/>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B40" s="25"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
       <c r="E40" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F40" s="19"/>
+      <c r="F40" s="16"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -4921,13 +4080,13 @@
       <c r="O40" s="6"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B41" s="25"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
       <c r="E41" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F41" s="19"/>
+      <c r="F41" s="16"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -4939,13 +4098,13 @@
       <c r="O41" s="6"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B42" s="25"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
       <c r="E42" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F42" s="19"/>
+      <c r="F42" s="16"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -4958,12 +4117,12 @@
     </row>
     <row r="43" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="27"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
       <c r="E43" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="20"/>
+      <c r="F43" s="17"/>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
@@ -4976,24 +4135,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="D34:D38"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="C39:C43"/>
-    <mergeCell ref="D39:D43"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="D24:D28"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="D14:D18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="D19:D23"/>
     <mergeCell ref="F2:O2"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="C4:C8"/>
@@ -5001,18 +4142,36 @@
     <mergeCell ref="B9:B13"/>
     <mergeCell ref="C9:C13"/>
     <mergeCell ref="D9:D13"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="D19:D23"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="D24:D28"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="C39:C43"/>
+    <mergeCell ref="D39:D43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD0BF60E-CB02-494C-822F-8A8B7067F095}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{876169AB-6A82-4517-A556-4971CA85FD89}">
   <dimension ref="B1:O43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5028,35 +4187,35 @@
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B2" s="10"/>
       <c r="C2" s="11"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="16" t="s">
+      <c r="D2" s="20"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="13"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="30"/>
     </row>
     <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="14">
         <v>1</v>
       </c>
       <c r="G3" s="2">
@@ -5083,24 +4242,24 @@
       <c r="N3" s="2">
         <v>9</v>
       </c>
-      <c r="O3" s="15">
+      <c r="O3" s="13">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="22">
         <v>0</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="22" t="s">
         <v>28</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="15">
         <v>7</v>
       </c>
       <c r="G4" s="4"/>
@@ -5114,13 +4273,13 @@
       <c r="O4" s="5"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
       <c r="E5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="16">
         <v>2</v>
       </c>
       <c r="G5" s="1"/>
@@ -5134,13 +4293,13 @@
       <c r="O5" s="6"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="25"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
       <c r="E6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="16">
         <v>2</v>
       </c>
       <c r="G6" s="1"/>
@@ -5154,13 +4313,13 @@
       <c r="O6" s="6"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="25"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
       <c r="E7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="16">
         <v>2</v>
       </c>
       <c r="G7" s="1"/>
@@ -5175,12 +4334,12 @@
     </row>
     <row r="8" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="27"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
       <c r="E8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="17">
         <v>0</v>
       </c>
       <c r="G8" s="7"/>
@@ -5194,19 +4353,21 @@
       <c r="O8" s="8"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="24">
+      <c r="B9" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="22">
         <v>1</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="22" t="s">
         <v>26</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="21"/>
+      <c r="F9" s="18">
+        <v>7</v>
+      </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -5218,13 +4379,15 @@
       <c r="O9" s="9"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="25"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
       <c r="E10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="19"/>
+      <c r="F10" s="16">
+        <v>3</v>
+      </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -5236,13 +4399,15 @@
       <c r="O10" s="6"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="25"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
       <c r="E11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="19"/>
+      <c r="F11" s="16">
+        <v>3</v>
+      </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -5254,13 +4419,15 @@
       <c r="O11" s="6"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="25"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
       <c r="E12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="19"/>
+      <c r="F12" s="16">
+        <v>10</v>
+      </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -5273,12 +4440,14 @@
     </row>
     <row r="13" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="27"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
       <c r="E13" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="20"/>
+      <c r="F13" s="17">
+        <v>-7.0000000000000007E-2</v>
+      </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
@@ -5290,19 +4459,19 @@
       <c r="O13" s="8"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="24">
+      <c r="B14" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="22">
         <v>2</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="18">
         <v>7</v>
       </c>
       <c r="G14" s="3">
@@ -5320,150 +4489,166 @@
       <c r="K14" s="3">
         <v>8</v>
       </c>
-      <c r="L14" s="3"/>
+      <c r="L14" s="3">
+        <v>8</v>
+      </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="9"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="25"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
       <c r="E15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="19">
-        <v>6</v>
+      <c r="F15" s="16">
+        <v>3</v>
       </c>
       <c r="G15" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H15" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I15" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J15" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K15" s="1">
-        <v>10</v>
-      </c>
-      <c r="L15" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="L15" s="1">
+        <v>5</v>
+      </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="6"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="25"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
       <c r="E16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="16">
+        <v>2</v>
+      </c>
+      <c r="G16" s="1">
         <v>3</v>
       </c>
-      <c r="G16" s="1">
-        <v>4</v>
-      </c>
       <c r="H16" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I16" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J16" s="1">
         <v>4</v>
       </c>
       <c r="K16" s="1">
+        <v>4</v>
+      </c>
+      <c r="L16" s="1">
         <v>5</v>
       </c>
-      <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="6"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="25"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
       <c r="E17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="16">
         <v>3</v>
       </c>
       <c r="G17" s="1">
         <v>4</v>
       </c>
       <c r="H17" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I17" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J17" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K17" s="1">
-        <v>9</v>
-      </c>
-      <c r="L17" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="L17" s="1">
+        <v>5</v>
+      </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="6"/>
     </row>
     <row r="18" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="27"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
       <c r="E18" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="20">
+      <c r="F18" s="17">
         <v>0</v>
       </c>
       <c r="G18" s="7">
-        <v>0</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="H18" s="7">
-        <v>0</v>
+        <v>-0.19</v>
       </c>
       <c r="I18" s="7">
-        <v>0</v>
+        <v>-0.35</v>
       </c>
       <c r="J18" s="7">
-        <v>0</v>
+        <v>-0.48</v>
       </c>
       <c r="K18" s="7">
-        <v>0</v>
-      </c>
-      <c r="L18" s="7"/>
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="L18" s="7">
+        <v>-0.61</v>
+      </c>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
       <c r="O18" s="8"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="24">
+      <c r="B19" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="22">
         <v>3</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="22" t="s">
         <v>27</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="21">
-        <v>7</v>
-      </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+      <c r="F19" s="18">
+        <v>9</v>
+      </c>
+      <c r="G19" s="3">
+        <v>10</v>
+      </c>
+      <c r="H19" s="3">
+        <v>11</v>
+      </c>
+      <c r="I19" s="3">
+        <v>12</v>
+      </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
@@ -5472,18 +4657,24 @@
       <c r="O19" s="9"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="25"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
       <c r="E20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="19">
-        <v>6</v>
-      </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="F20" s="16">
+        <v>3</v>
+      </c>
+      <c r="G20" s="1">
+        <v>4</v>
+      </c>
+      <c r="H20" s="1">
+        <v>4</v>
+      </c>
+      <c r="I20" s="1">
+        <v>4</v>
+      </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -5492,18 +4683,24 @@
       <c r="O20" s="6"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="25"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
       <c r="E21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F21" s="16">
         <v>3</v>
       </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
+      <c r="G21" s="1">
+        <v>4</v>
+      </c>
+      <c r="H21" s="1">
+        <v>4</v>
+      </c>
+      <c r="I21" s="1">
+        <v>4</v>
+      </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -5512,18 +4709,24 @@
       <c r="O21" s="6"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="25"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
       <c r="E22" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="19">
-        <v>4</v>
-      </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
+      <c r="F22" s="16">
+        <v>4</v>
+      </c>
+      <c r="G22" s="1">
+        <v>4</v>
+      </c>
+      <c r="H22" s="1">
+        <v>4</v>
+      </c>
+      <c r="I22" s="1">
+        <v>4</v>
+      </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -5533,17 +4736,23 @@
     </row>
     <row r="23" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="27"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
       <c r="E23" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="20">
-        <v>0</v>
-      </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
+      <c r="F23" s="17">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="G23" s="7">
+        <v>-0.13</v>
+      </c>
+      <c r="H23" s="7">
+        <v>-0.13</v>
+      </c>
+      <c r="I23" s="7">
+        <v>-0.13</v>
+      </c>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
@@ -5552,78 +4761,126 @@
       <c r="O23" s="8"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="24">
-        <v>4</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>26</v>
+      <c r="B24" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="22">
+        <v>4</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>25</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="21"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
+      <c r="F24" s="18">
+        <v>7</v>
+      </c>
+      <c r="G24" s="3">
+        <v>7</v>
+      </c>
+      <c r="H24" s="3">
+        <v>7</v>
+      </c>
+      <c r="I24" s="3">
+        <v>7</v>
+      </c>
+      <c r="J24" s="3">
+        <v>7</v>
+      </c>
+      <c r="K24" s="3">
+        <v>8</v>
+      </c>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="9"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="25"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
       <c r="E25" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="19"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
+      <c r="F25" s="16">
+        <v>2</v>
+      </c>
+      <c r="G25" s="1">
+        <v>2</v>
+      </c>
+      <c r="H25" s="1">
+        <v>3</v>
+      </c>
+      <c r="I25" s="1">
+        <v>5</v>
+      </c>
+      <c r="J25" s="1">
+        <v>6</v>
+      </c>
+      <c r="K25" s="1">
+        <v>8</v>
+      </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="6"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="25"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
       <c r="E26" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="19"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
+      <c r="F26" s="16">
+        <v>3</v>
+      </c>
+      <c r="G26" s="1">
+        <v>4</v>
+      </c>
+      <c r="H26" s="1">
+        <v>4</v>
+      </c>
+      <c r="I26" s="1">
+        <v>4</v>
+      </c>
+      <c r="J26" s="1">
+        <v>4</v>
+      </c>
+      <c r="K26" s="1">
+        <v>5</v>
+      </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="6"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="25"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
       <c r="E27" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="19"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
+      <c r="F27" s="16">
+        <v>3</v>
+      </c>
+      <c r="G27" s="1">
+        <v>3</v>
+      </c>
+      <c r="H27" s="1">
+        <v>3</v>
+      </c>
+      <c r="I27" s="1">
+        <v>4</v>
+      </c>
+      <c r="J27" s="1">
+        <v>4</v>
+      </c>
+      <c r="K27" s="1">
+        <v>5</v>
+      </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
@@ -5631,38 +4888,48 @@
     </row>
     <row r="28" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="27"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
       <c r="E28" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="7"/>
+      <c r="F28" s="17">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="G28" s="17">
+        <v>-0.13</v>
+      </c>
+      <c r="H28" s="17">
+        <v>-0.13</v>
+      </c>
+      <c r="I28" s="17">
+        <v>-0.13</v>
+      </c>
+      <c r="J28" s="17">
+        <v>-0.13</v>
+      </c>
+      <c r="K28" s="7">
+        <v>-0.19</v>
+      </c>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
       <c r="O28" s="8"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="24">
+      <c r="B29" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="22">
         <v>5</v>
       </c>
-      <c r="D29" s="24" t="s">
-        <v>25</v>
+      <c r="D29" s="22" t="s">
+        <v>26</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="21">
-        <v>7</v>
-      </c>
+      <c r="F29" s="18"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -5674,15 +4941,13 @@
       <c r="O29" s="9"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="25"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
       <c r="E30" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F30" s="19">
-        <v>3</v>
-      </c>
+      <c r="F30" s="16"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -5694,15 +4959,13 @@
       <c r="O30" s="6"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="25"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
       <c r="E31" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F31" s="19">
-        <v>3</v>
-      </c>
+      <c r="F31" s="16"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -5714,15 +4977,13 @@
       <c r="O31" s="6"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="25"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
       <c r="E32" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F32" s="19">
-        <v>3</v>
-      </c>
+      <c r="F32" s="16"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -5735,14 +4996,12 @@
     </row>
     <row r="33" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="27"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
       <c r="E33" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F33" s="20">
-        <v>-0.02</v>
-      </c>
+      <c r="F33" s="17"/>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
@@ -5754,19 +5013,19 @@
       <c r="O33" s="8"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34" s="24">
+      <c r="B34" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="22">
         <v>6</v>
       </c>
-      <c r="D34" s="24" t="s">
+      <c r="D34" s="22" t="s">
         <v>27</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F34" s="21"/>
+      <c r="F34" s="18"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
@@ -5778,13 +5037,13 @@
       <c r="O34" s="9"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="25"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
       <c r="E35" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F35" s="19"/>
+      <c r="F35" s="16"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -5796,13 +5055,13 @@
       <c r="O35" s="6"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B36" s="25"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
       <c r="E36" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F36" s="19"/>
+      <c r="F36" s="16"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -5814,13 +5073,13 @@
       <c r="O36" s="6"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B37" s="25"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
       <c r="E37" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F37" s="19"/>
+      <c r="F37" s="16"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -5833,12 +5092,12 @@
     </row>
     <row r="38" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="27"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
       <c r="E38" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F38" s="20"/>
+      <c r="F38" s="17"/>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
@@ -5850,19 +5109,19 @@
       <c r="O38" s="8"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B39" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C39" s="24">
-        <v>7</v>
-      </c>
-      <c r="D39" s="24" t="s">
+      <c r="B39" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="22">
+        <v>7</v>
+      </c>
+      <c r="D39" s="22" t="s">
         <v>26</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F39" s="21"/>
+      <c r="F39" s="18"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -5874,13 +5133,13 @@
       <c r="O39" s="9"/>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B40" s="25"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
       <c r="E40" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F40" s="19"/>
+      <c r="F40" s="16"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -5892,13 +5151,13 @@
       <c r="O40" s="6"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B41" s="25"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
       <c r="E41" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F41" s="19"/>
+      <c r="F41" s="16"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -5910,13 +5169,13 @@
       <c r="O41" s="6"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B42" s="25"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
       <c r="E42" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F42" s="19"/>
+      <c r="F42" s="16"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -5929,12 +5188,12 @@
     </row>
     <row r="43" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="27"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
       <c r="E43" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="20"/>
+      <c r="F43" s="17"/>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
@@ -5947,24 +5206,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="D34:D38"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="C39:C43"/>
-    <mergeCell ref="D39:D43"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="D24:D28"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="D14:D18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="D19:D23"/>
     <mergeCell ref="F2:O2"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="C4:C8"/>
@@ -5972,18 +5213,36 @@
     <mergeCell ref="B9:B13"/>
     <mergeCell ref="C9:C13"/>
     <mergeCell ref="D9:D13"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="D19:D23"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="D24:D28"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="C39:C43"/>
+    <mergeCell ref="D39:D43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BA48A5B-8FE5-4E03-81C1-683F605FF995}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD0BF60E-CB02-494C-822F-8A8B7067F095}">
   <dimension ref="B1:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5999,35 +5258,35 @@
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B2" s="10"/>
       <c r="C2" s="11"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="16" t="s">
+      <c r="D2" s="20"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="13"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="30"/>
     </row>
     <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="14">
         <v>1</v>
       </c>
       <c r="G3" s="2">
@@ -6054,25 +5313,25 @@
       <c r="N3" s="2">
         <v>9</v>
       </c>
-      <c r="O3" s="15">
+      <c r="O3" s="13">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="22">
         <v>0</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="22" t="s">
         <v>28</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="18">
-        <v>8</v>
+      <c r="F4" s="15">
+        <v>7</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -6085,13 +5344,13 @@
       <c r="O4" s="5"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
       <c r="E5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="16">
         <v>2</v>
       </c>
       <c r="G5" s="1"/>
@@ -6105,13 +5364,13 @@
       <c r="O5" s="6"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="25"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
       <c r="E6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="16">
         <v>2</v>
       </c>
       <c r="G6" s="1"/>
@@ -6125,13 +5384,13 @@
       <c r="O6" s="6"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="25"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
       <c r="E7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="16">
         <v>2</v>
       </c>
       <c r="G7" s="1"/>
@@ -6146,12 +5405,12 @@
     </row>
     <row r="8" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="27"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
       <c r="E8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="17">
         <v>0</v>
       </c>
       <c r="G8" s="7"/>
@@ -6165,19 +5424,1090 @@
       <c r="O8" s="8"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="24">
+      <c r="B9" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="22">
         <v>1</v>
       </c>
-      <c r="D9" s="24" t="s">
-        <v>25</v>
+      <c r="D9" s="22" t="s">
+        <v>26</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="21"/>
+      <c r="F9" s="18">
+        <v>7</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="9"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="26"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="16">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="6"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="26"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="16">
+        <v>3</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="6"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="26"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="16">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="6"/>
+    </row>
+    <row r="13" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="27"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="17">
+        <v>-0.24</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="8"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="22">
+        <v>2</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="18">
+        <v>7</v>
+      </c>
+      <c r="G14" s="3">
+        <v>7</v>
+      </c>
+      <c r="H14" s="3">
+        <v>7</v>
+      </c>
+      <c r="I14" s="3">
+        <v>7</v>
+      </c>
+      <c r="J14" s="3">
+        <v>7</v>
+      </c>
+      <c r="K14" s="3">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="9"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="26"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="16">
+        <v>6</v>
+      </c>
+      <c r="G15" s="1">
+        <v>7</v>
+      </c>
+      <c r="H15" s="1">
+        <v>8</v>
+      </c>
+      <c r="I15" s="1">
+        <v>9</v>
+      </c>
+      <c r="J15" s="1">
+        <v>10</v>
+      </c>
+      <c r="K15" s="1">
+        <v>10</v>
+      </c>
+      <c r="L15" s="1">
+        <v>11</v>
+      </c>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="6"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="26"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="16">
+        <v>3</v>
+      </c>
+      <c r="G16" s="1">
+        <v>4</v>
+      </c>
+      <c r="H16" s="1">
+        <v>4</v>
+      </c>
+      <c r="I16" s="1">
+        <v>4</v>
+      </c>
+      <c r="J16" s="1">
+        <v>4</v>
+      </c>
+      <c r="K16" s="1">
+        <v>5</v>
+      </c>
+      <c r="L16" s="1">
+        <v>5</v>
+      </c>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="6"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="26"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="16">
+        <v>3</v>
+      </c>
+      <c r="G17" s="1">
+        <v>4</v>
+      </c>
+      <c r="H17" s="1">
+        <v>6</v>
+      </c>
+      <c r="I17" s="1">
+        <v>7</v>
+      </c>
+      <c r="J17" s="1">
+        <v>9</v>
+      </c>
+      <c r="K17" s="1">
+        <v>9</v>
+      </c>
+      <c r="L17" s="1">
+        <v>12</v>
+      </c>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="6"/>
+    </row>
+    <row r="18" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="27"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="17">
+        <v>0</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7">
+        <v>0</v>
+      </c>
+      <c r="K18" s="7">
+        <v>0</v>
+      </c>
+      <c r="L18" s="7">
+        <v>0</v>
+      </c>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="8"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="22">
+        <v>3</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="18">
+        <v>7</v>
+      </c>
+      <c r="G19" s="3">
+        <v>7</v>
+      </c>
+      <c r="H19" s="3">
+        <v>7</v>
+      </c>
+      <c r="I19" s="3">
+        <v>7</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="9"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20" s="26"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="16">
+        <v>6</v>
+      </c>
+      <c r="G20" s="1">
+        <v>7</v>
+      </c>
+      <c r="H20" s="1">
+        <v>7</v>
+      </c>
+      <c r="I20" s="1">
+        <v>8</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="6"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B21" s="26"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="16">
+        <v>3</v>
+      </c>
+      <c r="G21" s="1">
+        <v>4</v>
+      </c>
+      <c r="H21" s="1">
+        <v>4</v>
+      </c>
+      <c r="I21" s="1">
+        <v>4</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="6"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22" s="26"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="16">
+        <v>4</v>
+      </c>
+      <c r="G22" s="1">
+        <v>5</v>
+      </c>
+      <c r="H22" s="1">
+        <v>7</v>
+      </c>
+      <c r="I22" s="1">
+        <v>8</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="6"/>
+    </row>
+    <row r="23" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="27"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="17">
+        <v>0</v>
+      </c>
+      <c r="G23" s="7">
+        <v>0</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0</v>
+      </c>
+      <c r="I23" s="7">
+        <v>0</v>
+      </c>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="8"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B24" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="22">
+        <v>4</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="18"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="9"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B25" s="26"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="16"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="6"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B26" s="26"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="16"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="6"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B27" s="26"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="16"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="6"/>
+    </row>
+    <row r="28" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="27"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="8"/>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B29" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="22">
+        <v>5</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="18">
+        <v>7</v>
+      </c>
+      <c r="G29" s="3">
+        <v>7</v>
+      </c>
+      <c r="H29" s="3">
+        <v>7</v>
+      </c>
+      <c r="I29" s="3">
+        <v>7</v>
+      </c>
+      <c r="J29" s="3">
+        <v>7</v>
+      </c>
+      <c r="K29" s="3">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="9"/>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B30" s="26"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="16">
+        <v>3</v>
+      </c>
+      <c r="G30" s="1">
+        <v>4</v>
+      </c>
+      <c r="H30" s="1">
+        <v>4</v>
+      </c>
+      <c r="I30" s="1">
+        <v>4</v>
+      </c>
+      <c r="J30" s="1">
+        <v>4</v>
+      </c>
+      <c r="K30" s="1">
+        <v>5</v>
+      </c>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="6"/>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B31" s="26"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="16">
+        <v>3</v>
+      </c>
+      <c r="G31" s="1">
+        <v>4</v>
+      </c>
+      <c r="H31" s="1">
+        <v>4</v>
+      </c>
+      <c r="I31" s="1">
+        <v>4</v>
+      </c>
+      <c r="J31" s="1">
+        <v>4</v>
+      </c>
+      <c r="K31" s="1">
+        <v>5</v>
+      </c>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="6"/>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B32" s="26"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="16">
+        <v>3</v>
+      </c>
+      <c r="G32" s="1">
+        <v>3</v>
+      </c>
+      <c r="H32" s="1">
+        <v>4</v>
+      </c>
+      <c r="I32" s="1">
+        <v>5</v>
+      </c>
+      <c r="J32" s="1">
+        <v>7</v>
+      </c>
+      <c r="K32" s="1">
+        <v>8</v>
+      </c>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="6"/>
+    </row>
+    <row r="33" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="27"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="17">
+        <v>-0.02</v>
+      </c>
+      <c r="G33" s="7">
+        <v>-0.02</v>
+      </c>
+      <c r="H33" s="7">
+        <v>-0.04</v>
+      </c>
+      <c r="I33" s="7">
+        <v>-0.06</v>
+      </c>
+      <c r="J33" s="7">
+        <v>-0.08</v>
+      </c>
+      <c r="K33" s="7">
+        <v>-0.08</v>
+      </c>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="8"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B34" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="22">
+        <v>6</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="18"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="9"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B35" s="26"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="16"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="6"/>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B36" s="26"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="16"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="6"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B37" s="26"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="16"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="6"/>
+    </row>
+    <row r="38" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="27"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="17"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="8"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B39" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="22">
+        <v>7</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="18"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="9"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B40" s="26"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="16"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="6"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B41" s="26"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="16"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="6"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B42" s="26"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" s="16"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="6"/>
+    </row>
+    <row r="43" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="27"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="17"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="F2:O2"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="D9:D13"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="D19:D23"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="D24:D28"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="C39:C43"/>
+    <mergeCell ref="D39:D43"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BA48A5B-8FE5-4E03-81C1-683F605FF995}">
+  <dimension ref="B1:O43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="15" width="5.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="10"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="30"/>
+    </row>
+    <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="14">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2">
+        <v>2</v>
+      </c>
+      <c r="H3" s="2">
+        <v>3</v>
+      </c>
+      <c r="I3" s="2">
+        <v>4</v>
+      </c>
+      <c r="J3" s="2">
+        <v>5</v>
+      </c>
+      <c r="K3" s="2">
+        <v>6</v>
+      </c>
+      <c r="L3" s="2">
+        <v>7</v>
+      </c>
+      <c r="M3" s="2">
+        <v>8</v>
+      </c>
+      <c r="N3" s="2">
+        <v>9</v>
+      </c>
+      <c r="O3" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="22">
+        <v>0</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="15">
+        <v>8</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="5"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="26"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="16">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="6"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="26"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="16">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="6"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="26"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="16">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="6"/>
+    </row>
+    <row r="8" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="27"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="17">
+        <v>0</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="8"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="22">
+        <v>1</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="18"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3">
         <v>12</v>
@@ -6199,13 +6529,13 @@
       <c r="O9" s="9"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="25"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
       <c r="E10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="19"/>
+      <c r="F10" s="16"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1">
         <v>4</v>
@@ -6227,13 +6557,13 @@
       <c r="O10" s="6"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="25"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
       <c r="E11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="19"/>
+      <c r="F11" s="16"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1">
         <v>3</v>
@@ -6255,13 +6585,13 @@
       <c r="O11" s="6"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="25"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
       <c r="E12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="19"/>
+      <c r="F12" s="16"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1">
         <v>4</v>
@@ -6284,12 +6614,12 @@
     </row>
     <row r="13" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="27"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
       <c r="E13" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="20"/>
+      <c r="F13" s="17"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7">
         <v>0</v>
@@ -6311,19 +6641,19 @@
       <c r="O13" s="8"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="22">
         <v>2</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="22" t="s">
         <v>27</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="18">
         <v>13</v>
       </c>
       <c r="G14" s="3">
@@ -6332,7 +6662,9 @@
       <c r="H14" s="3">
         <v>17</v>
       </c>
-      <c r="I14" s="3"/>
+      <c r="I14" s="3">
+        <v>18</v>
+      </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -6341,13 +6673,13 @@
       <c r="O14" s="9"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="25"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
       <c r="E15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="16">
         <v>3</v>
       </c>
       <c r="G15" s="1">
@@ -6356,7 +6688,9 @@
       <c r="H15" s="1">
         <v>4</v>
       </c>
-      <c r="I15" s="1"/>
+      <c r="I15" s="1">
+        <v>4</v>
+      </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -6365,13 +6699,13 @@
       <c r="O15" s="6"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="25"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
       <c r="E16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="16">
         <v>5</v>
       </c>
       <c r="G16" s="1">
@@ -6380,7 +6714,9 @@
       <c r="H16" s="1">
         <v>6</v>
       </c>
-      <c r="I16" s="1"/>
+      <c r="I16" s="1">
+        <v>6</v>
+      </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -6389,13 +6725,13 @@
       <c r="O16" s="6"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="25"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
       <c r="E17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="16">
         <v>3</v>
       </c>
       <c r="G17" s="1">
@@ -6404,7 +6740,9 @@
       <c r="H17" s="1">
         <v>4</v>
       </c>
-      <c r="I17" s="1"/>
+      <c r="I17" s="1">
+        <v>4</v>
+      </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -6414,12 +6752,12 @@
     </row>
     <row r="18" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="27"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
       <c r="E18" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="20">
+      <c r="F18" s="17">
         <v>-7.0000000000000007E-2</v>
       </c>
       <c r="G18" s="7">
@@ -6428,7 +6766,9 @@
       <c r="H18" s="7">
         <v>-0.13</v>
       </c>
-      <c r="I18" s="7"/>
+      <c r="I18" s="7">
+        <v>-0.13</v>
+      </c>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
@@ -6437,19 +6777,19 @@
       <c r="O18" s="8"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="22">
         <v>3</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="22" t="s">
         <v>26</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="21"/>
+      <c r="F19" s="18"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -6461,13 +6801,13 @@
       <c r="O19" s="9"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="25"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
       <c r="E20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="19"/>
+      <c r="F20" s="16"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -6479,13 +6819,13 @@
       <c r="O20" s="6"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="25"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
       <c r="E21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="19"/>
+      <c r="F21" s="16"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -6497,13 +6837,13 @@
       <c r="O21" s="6"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="25"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
       <c r="E22" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="19"/>
+      <c r="F22" s="16"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -6516,12 +6856,12 @@
     </row>
     <row r="23" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="27"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
       <c r="E23" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="20"/>
+      <c r="F23" s="17"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -6533,19 +6873,19 @@
       <c r="O23" s="8"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="24">
-        <v>4</v>
-      </c>
-      <c r="D24" s="24" t="s">
+      <c r="C24" s="22">
+        <v>4</v>
+      </c>
+      <c r="D24" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="21">
+      <c r="F24" s="18">
         <v>8</v>
       </c>
       <c r="G24" s="3">
@@ -6563,19 +6903,21 @@
       <c r="K24" s="3">
         <v>14</v>
       </c>
-      <c r="L24" s="3"/>
+      <c r="L24" s="3">
+        <v>16</v>
+      </c>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="9"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="25"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
       <c r="E25" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="19">
+      <c r="F25" s="16">
         <v>3</v>
       </c>
       <c r="G25" s="1">
@@ -6593,19 +6935,21 @@
       <c r="K25" s="1">
         <v>5</v>
       </c>
-      <c r="L25" s="1"/>
+      <c r="L25" s="1">
+        <v>5</v>
+      </c>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="6"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="25"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
       <c r="E26" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="19">
+      <c r="F26" s="16">
         <v>6</v>
       </c>
       <c r="G26" s="1">
@@ -6623,19 +6967,21 @@
       <c r="K26" s="1">
         <v>10</v>
       </c>
-      <c r="L26" s="1"/>
+      <c r="L26" s="1">
+        <v>11</v>
+      </c>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="6"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="25"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
       <c r="E27" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="19">
+      <c r="F27" s="16">
         <v>3</v>
       </c>
       <c r="G27" s="1">
@@ -6653,61 +6999,67 @@
       <c r="K27" s="1">
         <v>5</v>
       </c>
-      <c r="L27" s="1"/>
+      <c r="L27" s="1">
+        <v>5</v>
+      </c>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="6"/>
     </row>
     <row r="28" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="27"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
       <c r="E28" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="20">
+      <c r="F28" s="17">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="G28" s="20">
+      <c r="G28" s="17">
         <v>-0.13</v>
       </c>
-      <c r="H28" s="20">
+      <c r="H28" s="17">
         <v>-0.13</v>
       </c>
-      <c r="I28" s="20">
+      <c r="I28" s="17">
         <v>-0.13</v>
       </c>
-      <c r="J28" s="20">
+      <c r="J28" s="17">
         <v>-0.13</v>
       </c>
       <c r="K28" s="7">
         <v>-0.19</v>
       </c>
-      <c r="L28" s="7"/>
+      <c r="L28" s="7">
+        <v>-0.19</v>
+      </c>
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
       <c r="O28" s="8"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="24">
+      <c r="C29" s="22">
         <v>5</v>
       </c>
-      <c r="D29" s="24" t="s">
+      <c r="D29" s="22" t="s">
         <v>27</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="21">
+      <c r="F29" s="18">
         <v>16</v>
       </c>
       <c r="G29" s="3">
         <v>17</v>
       </c>
-      <c r="H29" s="3"/>
+      <c r="H29" s="3">
+        <v>19</v>
+      </c>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
@@ -6717,19 +7069,21 @@
       <c r="O29" s="9"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="25"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
       <c r="E30" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F30" s="19">
+      <c r="F30" s="16">
         <v>3</v>
       </c>
       <c r="G30" s="1">
         <v>4</v>
       </c>
-      <c r="H30" s="1"/>
+      <c r="H30" s="1">
+        <v>4</v>
+      </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -6739,19 +7093,21 @@
       <c r="O30" s="6"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="25"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
       <c r="E31" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F31" s="19">
+      <c r="F31" s="16">
         <v>3</v>
       </c>
       <c r="G31" s="1">
         <v>4</v>
       </c>
-      <c r="H31" s="1"/>
+      <c r="H31" s="1">
+        <v>4</v>
+      </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -6761,19 +7117,21 @@
       <c r="O31" s="6"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="25"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
       <c r="E32" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F32" s="19">
+      <c r="F32" s="16">
         <v>3</v>
       </c>
       <c r="G32" s="1">
         <v>4</v>
       </c>
-      <c r="H32" s="1"/>
+      <c r="H32" s="1">
+        <v>4</v>
+      </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -6784,18 +7142,20 @@
     </row>
     <row r="33" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="27"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
       <c r="E33" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F33" s="20">
+      <c r="F33" s="17">
         <v>-7.0000000000000007E-2</v>
       </c>
       <c r="G33" s="7">
         <v>-0.13</v>
       </c>
-      <c r="H33" s="7"/>
+      <c r="H33" s="7">
+        <v>-0.13</v>
+      </c>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
@@ -6805,19 +7165,19 @@
       <c r="O33" s="8"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="C34" s="24">
+      <c r="C34" s="22">
         <v>6</v>
       </c>
-      <c r="D34" s="24" t="s">
+      <c r="D34" s="22" t="s">
         <v>26</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F34" s="21"/>
+      <c r="F34" s="18"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
@@ -6829,13 +7189,13 @@
       <c r="O34" s="9"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="25"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
       <c r="E35" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F35" s="19"/>
+      <c r="F35" s="16"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -6847,13 +7207,13 @@
       <c r="O35" s="6"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B36" s="25"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
       <c r="E36" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F36" s="19"/>
+      <c r="F36" s="16"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -6865,13 +7225,13 @@
       <c r="O36" s="6"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B37" s="25"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
       <c r="E37" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F37" s="19"/>
+      <c r="F37" s="16"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -6884,12 +7244,12 @@
     </row>
     <row r="38" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="27"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
       <c r="E38" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F38" s="20"/>
+      <c r="F38" s="17"/>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
@@ -6901,19 +7261,19 @@
       <c r="O38" s="8"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C39" s="24">
-        <v>7</v>
-      </c>
-      <c r="D39" s="24" t="s">
+      <c r="C39" s="22">
+        <v>7</v>
+      </c>
+      <c r="D39" s="22" t="s">
         <v>26</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F39" s="21"/>
+      <c r="F39" s="18"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -6925,13 +7285,13 @@
       <c r="O39" s="9"/>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B40" s="25"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
       <c r="E40" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F40" s="19"/>
+      <c r="F40" s="16"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -6943,13 +7303,13 @@
       <c r="O40" s="6"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B41" s="25"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
       <c r="E41" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F41" s="19"/>
+      <c r="F41" s="16"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -6961,13 +7321,13 @@
       <c r="O41" s="6"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B42" s="25"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
       <c r="E42" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F42" s="19"/>
+      <c r="F42" s="16"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -6980,12 +7340,12 @@
     </row>
     <row r="43" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="27"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
       <c r="E43" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="20"/>
+      <c r="F43" s="17"/>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
@@ -6998,24 +7358,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="D34:D38"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="C39:C43"/>
-    <mergeCell ref="D39:D43"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="D24:D28"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="D14:D18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="D19:D23"/>
     <mergeCell ref="F2:O2"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="C4:C8"/>
@@ -7023,6 +7365,24 @@
     <mergeCell ref="B9:B13"/>
     <mergeCell ref="C9:C13"/>
     <mergeCell ref="D9:D13"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="D19:D23"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="D24:D28"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="C39:C43"/>
+    <mergeCell ref="D39:D43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataOnParts.xlsx
+++ b/DataOnParts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\F1ManagerOptimalConfiguration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC8F0F9-019C-4B7B-8516-94BE0A30B8ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E6D031-AC63-4031-8068-BE6A0F9EAAD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="1515" windowWidth="19440" windowHeight="15150" activeTab="2" xr2:uid="{7B99EB5A-1958-428B-8D9A-88A9EE4EF4B6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15540" xr2:uid="{7B99EB5A-1958-428B-8D9A-88A9EE4EF4B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Brakes" sheetId="1" r:id="rId1"/>
@@ -604,14 +604,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -622,14 +622,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -947,11 +947,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6BEEB3A-B90F-447E-9666-8367BEDBC262}">
   <dimension ref="B1:O43"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="3" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
+      <selection pane="bottomRight" activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -969,18 +969,18 @@
       <c r="C2" s="11"/>
       <c r="D2" s="20"/>
       <c r="E2" s="19"/>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="30"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="24"/>
     </row>
     <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="12" t="s">
@@ -1030,10 +1030,10 @@
       <c r="B4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="28">
         <v>0</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="28" t="s">
         <v>28</v>
       </c>
       <c r="E4" s="5" t="s">
@@ -1054,8 +1054,8 @@
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="26"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
       <c r="E5" s="6" t="s">
         <v>12</v>
       </c>
@@ -1074,8 +1074,8 @@
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="26"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="6" t="s">
         <v>13</v>
       </c>
@@ -1094,8 +1094,8 @@
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="26"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>14</v>
       </c>
@@ -1114,8 +1114,8 @@
     </row>
     <row r="8" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="27"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
       <c r="E8" s="8" t="s">
         <v>15</v>
       </c>
@@ -1136,10 +1136,10 @@
       <c r="B9" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="28">
         <v>1</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="28" t="s">
         <v>27</v>
       </c>
       <c r="E9" s="9" t="s">
@@ -1166,8 +1166,8 @@
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="26"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
       <c r="E10" s="6" t="s">
         <v>12</v>
       </c>
@@ -1192,8 +1192,8 @@
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="26"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="6" t="s">
         <v>13</v>
       </c>
@@ -1218,8 +1218,8 @@
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="26"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
       <c r="E12" s="6" t="s">
         <v>14</v>
       </c>
@@ -1244,8 +1244,8 @@
     </row>
     <row r="13" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="27"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
       <c r="E13" s="8" t="s">
         <v>15</v>
       </c>
@@ -1272,10 +1272,10 @@
       <c r="B14" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="28">
         <v>2</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="28" t="s">
         <v>26</v>
       </c>
       <c r="E14" s="9" t="s">
@@ -1296,8 +1296,8 @@
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="26"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
       <c r="E15" s="6" t="s">
         <v>12</v>
       </c>
@@ -1316,8 +1316,8 @@
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="26"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
       <c r="E16" s="6" t="s">
         <v>13</v>
       </c>
@@ -1336,8 +1336,8 @@
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="26"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
       <c r="E17" s="6" t="s">
         <v>14</v>
       </c>
@@ -1356,8 +1356,8 @@
     </row>
     <row r="18" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="27"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
       <c r="E18" s="8" t="s">
         <v>15</v>
       </c>
@@ -1378,10 +1378,10 @@
       <c r="B19" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="28">
         <v>3</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="28" t="s">
         <v>25</v>
       </c>
       <c r="E19" s="9" t="s">
@@ -1405,15 +1405,17 @@
       <c r="K19" s="3">
         <v>8</v>
       </c>
-      <c r="L19" s="3"/>
+      <c r="L19" s="3">
+        <v>8</v>
+      </c>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="9"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="26"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
       <c r="E20" s="6" t="s">
         <v>12</v>
       </c>
@@ -1435,15 +1437,17 @@
       <c r="K20" s="1">
         <v>8</v>
       </c>
-      <c r="L20" s="1"/>
+      <c r="L20" s="1">
+        <v>9</v>
+      </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="6"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="26"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
       <c r="E21" s="6" t="s">
         <v>13</v>
       </c>
@@ -1465,15 +1469,17 @@
       <c r="K21" s="1">
         <v>15</v>
       </c>
-      <c r="L21" s="1"/>
+      <c r="L21" s="1">
+        <v>17</v>
+      </c>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="6"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="26"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
       <c r="E22" s="6" t="s">
         <v>14</v>
       </c>
@@ -1495,15 +1501,17 @@
       <c r="K22" s="1">
         <v>4</v>
       </c>
-      <c r="L22" s="1"/>
+      <c r="L22" s="1">
+        <v>5</v>
+      </c>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="6"/>
     </row>
     <row r="23" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="27"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
       <c r="E23" s="8" t="s">
         <v>15</v>
       </c>
@@ -1525,7 +1533,9 @@
       <c r="K23" s="7">
         <v>0</v>
       </c>
-      <c r="L23" s="7"/>
+      <c r="L23" s="7">
+        <v>0</v>
+      </c>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
       <c r="O23" s="8"/>
@@ -1534,10 +1544,10 @@
       <c r="B24" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="22">
-        <v>4</v>
-      </c>
-      <c r="D24" s="22" t="s">
+      <c r="C24" s="28">
+        <v>4</v>
+      </c>
+      <c r="D24" s="28" t="s">
         <v>26</v>
       </c>
       <c r="E24" s="9" t="s">
@@ -1558,8 +1568,8 @@
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="26"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
       <c r="E25" s="6" t="s">
         <v>12</v>
       </c>
@@ -1578,8 +1588,8 @@
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="26"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
       <c r="E26" s="6" t="s">
         <v>13</v>
       </c>
@@ -1598,8 +1608,8 @@
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="26"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
       <c r="E27" s="6" t="s">
         <v>14</v>
       </c>
@@ -1618,8 +1628,8 @@
     </row>
     <row r="28" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="27"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
       <c r="E28" s="8" t="s">
         <v>15</v>
       </c>
@@ -1640,10 +1650,10 @@
       <c r="B29" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="22">
+      <c r="C29" s="28">
         <v>5</v>
       </c>
-      <c r="D29" s="22" t="s">
+      <c r="D29" s="28" t="s">
         <v>27</v>
       </c>
       <c r="E29" s="9" t="s">
@@ -1668,8 +1678,8 @@
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="26"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
       <c r="E30" s="6" t="s">
         <v>12</v>
       </c>
@@ -1692,8 +1702,8 @@
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="26"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
       <c r="E31" s="6" t="s">
         <v>13</v>
       </c>
@@ -1716,8 +1726,8 @@
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="26"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
       <c r="E32" s="6" t="s">
         <v>14</v>
       </c>
@@ -1740,8 +1750,8 @@
     </row>
     <row r="33" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="27"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
       <c r="E33" s="8" t="s">
         <v>15</v>
       </c>
@@ -1766,10 +1776,10 @@
       <c r="B34" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="22">
+      <c r="C34" s="28">
         <v>6</v>
       </c>
-      <c r="D34" s="22" t="s">
+      <c r="D34" s="28" t="s">
         <v>25</v>
       </c>
       <c r="E34" s="9" t="s">
@@ -1781,7 +1791,9 @@
       <c r="G34" s="3">
         <v>7</v>
       </c>
-      <c r="H34" s="3"/>
+      <c r="H34" s="3">
+        <v>7</v>
+      </c>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
@@ -1792,8 +1804,8 @@
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B35" s="26"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
       <c r="E35" s="6" t="s">
         <v>12</v>
       </c>
@@ -1803,7 +1815,9 @@
       <c r="G35" s="1">
         <v>4</v>
       </c>
-      <c r="H35" s="1"/>
+      <c r="H35" s="1">
+        <v>4</v>
+      </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -1814,8 +1828,8 @@
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" s="26"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
       <c r="E36" s="6" t="s">
         <v>13</v>
       </c>
@@ -1825,7 +1839,9 @@
       <c r="G36" s="1">
         <v>14</v>
       </c>
-      <c r="H36" s="1"/>
+      <c r="H36" s="1">
+        <v>17</v>
+      </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -1836,8 +1852,8 @@
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B37" s="26"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
       <c r="E37" s="6" t="s">
         <v>14</v>
       </c>
@@ -1847,7 +1863,9 @@
       <c r="G37" s="1">
         <v>4</v>
       </c>
-      <c r="H37" s="1"/>
+      <c r="H37" s="1">
+        <v>5</v>
+      </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -1858,8 +1876,8 @@
     </row>
     <row r="38" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="27"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
       <c r="E38" s="8" t="s">
         <v>15</v>
       </c>
@@ -1869,7 +1887,9 @@
       <c r="G38" s="7">
         <v>0</v>
       </c>
-      <c r="H38" s="7"/>
+      <c r="H38" s="7">
+        <v>0</v>
+      </c>
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
@@ -1882,10 +1902,10 @@
       <c r="B39" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="22">
-        <v>7</v>
-      </c>
-      <c r="D39" s="22" t="s">
+      <c r="C39" s="28">
+        <v>7</v>
+      </c>
+      <c r="D39" s="28" t="s">
         <v>26</v>
       </c>
       <c r="E39" s="9" t="s">
@@ -1904,8 +1924,8 @@
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B40" s="26"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
       <c r="E40" s="6" t="s">
         <v>12</v>
       </c>
@@ -1922,8 +1942,8 @@
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B41" s="26"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
       <c r="E41" s="6" t="s">
         <v>13</v>
       </c>
@@ -1940,8 +1960,8 @@
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B42" s="26"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
       <c r="E42" s="6" t="s">
         <v>14</v>
       </c>
@@ -1958,8 +1978,8 @@
     </row>
     <row r="43" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="27"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
       <c r="E43" s="8" t="s">
         <v>15</v>
       </c>
@@ -1976,11 +1996,10 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="F2:O2"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="D24:D28"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="D39:D43"/>
     <mergeCell ref="B29:B33"/>
     <mergeCell ref="B34:B38"/>
     <mergeCell ref="B39:B43"/>
@@ -1993,14 +2012,15 @@
     <mergeCell ref="C34:C38"/>
     <mergeCell ref="B24:B28"/>
     <mergeCell ref="C39:C43"/>
+    <mergeCell ref="F2:O2"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="B19:B23"/>
     <mergeCell ref="D4:D8"/>
     <mergeCell ref="D9:D13"/>
     <mergeCell ref="D14:D18"/>
     <mergeCell ref="D19:D23"/>
-    <mergeCell ref="D24:D28"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="D34:D38"/>
-    <mergeCell ref="D39:D43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2033,18 +2053,18 @@
       <c r="C2" s="11"/>
       <c r="D2" s="20"/>
       <c r="E2" s="19"/>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="30"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="24"/>
     </row>
     <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="12" t="s">
@@ -2094,10 +2114,10 @@
       <c r="B4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="28">
         <v>0</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="28" t="s">
         <v>28</v>
       </c>
       <c r="E4" s="5" t="s">
@@ -2118,8 +2138,8 @@
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="26"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
       <c r="E5" s="6" t="s">
         <v>12</v>
       </c>
@@ -2138,8 +2158,8 @@
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="26"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="6" t="s">
         <v>13</v>
       </c>
@@ -2158,8 +2178,8 @@
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="26"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>14</v>
       </c>
@@ -2178,8 +2198,8 @@
     </row>
     <row r="8" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="27"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
       <c r="E8" s="8" t="s">
         <v>15</v>
       </c>
@@ -2200,10 +2220,10 @@
       <c r="B9" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="28">
         <v>1</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="28" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="9" t="s">
@@ -2232,8 +2252,8 @@
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="26"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
       <c r="E10" s="6" t="s">
         <v>12</v>
       </c>
@@ -2260,8 +2280,8 @@
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="26"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="6" t="s">
         <v>13</v>
       </c>
@@ -2288,8 +2308,8 @@
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="26"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
       <c r="E12" s="6" t="s">
         <v>14</v>
       </c>
@@ -2316,8 +2336,8 @@
     </row>
     <row r="13" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="27"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
       <c r="E13" s="8" t="s">
         <v>15</v>
       </c>
@@ -2350,10 +2370,10 @@
       <c r="B14" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="28">
         <v>2</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="28" t="s">
         <v>26</v>
       </c>
       <c r="E14" s="9" t="s">
@@ -2376,8 +2396,8 @@
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="26"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
       <c r="E15" s="6" t="s">
         <v>12</v>
       </c>
@@ -2398,8 +2418,8 @@
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="26"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
       <c r="E16" s="6" t="s">
         <v>13</v>
       </c>
@@ -2420,8 +2440,8 @@
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="26"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
       <c r="E17" s="6" t="s">
         <v>14</v>
       </c>
@@ -2442,8 +2462,8 @@
     </row>
     <row r="18" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="27"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
       <c r="E18" s="8" t="s">
         <v>15</v>
       </c>
@@ -2466,10 +2486,10 @@
       <c r="B19" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="28">
         <v>3</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="28" t="s">
         <v>26</v>
       </c>
       <c r="E19" s="9" t="s">
@@ -2492,8 +2512,8 @@
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="26"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
       <c r="E20" s="6" t="s">
         <v>12</v>
       </c>
@@ -2514,8 +2534,8 @@
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="26"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
       <c r="E21" s="6" t="s">
         <v>13</v>
       </c>
@@ -2536,8 +2556,8 @@
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="26"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
       <c r="E22" s="6" t="s">
         <v>14</v>
       </c>
@@ -2558,8 +2578,8 @@
     </row>
     <row r="23" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="27"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
       <c r="E23" s="8" t="s">
         <v>15</v>
       </c>
@@ -2582,10 +2602,10 @@
       <c r="B24" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="22">
-        <v>4</v>
-      </c>
-      <c r="D24" s="22" t="s">
+      <c r="C24" s="28">
+        <v>4</v>
+      </c>
+      <c r="D24" s="28" t="s">
         <v>25</v>
       </c>
       <c r="E24" s="9" t="s">
@@ -2616,8 +2636,8 @@
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="26"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
       <c r="E25" s="6" t="s">
         <v>12</v>
       </c>
@@ -2646,8 +2666,8 @@
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="26"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
       <c r="E26" s="6" t="s">
         <v>13</v>
       </c>
@@ -2676,8 +2696,8 @@
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="26"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
       <c r="E27" s="6" t="s">
         <v>14</v>
       </c>
@@ -2706,8 +2726,8 @@
     </row>
     <row r="28" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="27"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
       <c r="E28" s="8" t="s">
         <v>15</v>
       </c>
@@ -2738,10 +2758,10 @@
       <c r="B29" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="22">
+      <c r="C29" s="28">
         <v>5</v>
       </c>
-      <c r="D29" s="22" t="s">
+      <c r="D29" s="28" t="s">
         <v>27</v>
       </c>
       <c r="E29" s="9" t="s">
@@ -2766,8 +2786,8 @@
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="26"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
       <c r="E30" s="6" t="s">
         <v>12</v>
       </c>
@@ -2790,8 +2810,8 @@
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="26"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
       <c r="E31" s="6" t="s">
         <v>13</v>
       </c>
@@ -2814,8 +2834,8 @@
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="26"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
       <c r="E32" s="6" t="s">
         <v>14</v>
       </c>
@@ -2838,8 +2858,8 @@
     </row>
     <row r="33" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="27"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
       <c r="E33" s="8" t="s">
         <v>15</v>
       </c>
@@ -2864,10 +2884,10 @@
       <c r="B34" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="22">
+      <c r="C34" s="28">
         <v>6</v>
       </c>
-      <c r="D34" s="22" t="s">
+      <c r="D34" s="28" t="s">
         <v>26</v>
       </c>
       <c r="E34" s="9" t="s">
@@ -2886,8 +2906,8 @@
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B35" s="26"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
       <c r="E35" s="6" t="s">
         <v>12</v>
       </c>
@@ -2904,8 +2924,8 @@
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" s="26"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
       <c r="E36" s="6" t="s">
         <v>13</v>
       </c>
@@ -2922,8 +2942,8 @@
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B37" s="26"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
       <c r="E37" s="6" t="s">
         <v>14</v>
       </c>
@@ -2940,8 +2960,8 @@
     </row>
     <row r="38" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="27"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
       <c r="E38" s="8" t="s">
         <v>15</v>
       </c>
@@ -2960,10 +2980,10 @@
       <c r="B39" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="22">
-        <v>7</v>
-      </c>
-      <c r="D39" s="22" t="s">
+      <c r="C39" s="28">
+        <v>7</v>
+      </c>
+      <c r="D39" s="28" t="s">
         <v>26</v>
       </c>
       <c r="E39" s="9" t="s">
@@ -2982,8 +3002,8 @@
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B40" s="26"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
       <c r="E40" s="6" t="s">
         <v>12</v>
       </c>
@@ -3000,8 +3020,8 @@
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B41" s="26"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
       <c r="E41" s="6" t="s">
         <v>13</v>
       </c>
@@ -3018,8 +3038,8 @@
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B42" s="26"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
       <c r="E42" s="6" t="s">
         <v>14</v>
       </c>
@@ -3036,8 +3056,8 @@
     </row>
     <row r="43" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="27"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
       <c r="E43" s="8" t="s">
         <v>15</v>
       </c>
@@ -3054,15 +3074,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="F2:O2"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
     <mergeCell ref="D39:D43"/>
     <mergeCell ref="D4:D8"/>
     <mergeCell ref="B34:B38"/>
@@ -3079,6 +3090,15 @@
     <mergeCell ref="C19:C23"/>
     <mergeCell ref="B24:B28"/>
     <mergeCell ref="C24:C28"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="F2:O2"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3089,8 +3109,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E7C67C1-28FC-4DA9-865A-E09E71E0A33D}">
   <dimension ref="B1:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3108,18 +3131,18 @@
       <c r="C2" s="11"/>
       <c r="D2" s="20"/>
       <c r="E2" s="19"/>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="30"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="24"/>
     </row>
     <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="12" t="s">
@@ -3169,10 +3192,10 @@
       <c r="B4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="28">
         <v>0</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="28" t="s">
         <v>28</v>
       </c>
       <c r="E4" s="5" t="s">
@@ -3193,8 +3216,8 @@
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="26"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
       <c r="E5" s="6" t="s">
         <v>12</v>
       </c>
@@ -3213,8 +3236,8 @@
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="26"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="6" t="s">
         <v>13</v>
       </c>
@@ -3233,8 +3256,8 @@
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="26"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>14</v>
       </c>
@@ -3253,8 +3276,8 @@
     </row>
     <row r="8" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="27"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
       <c r="E8" s="8" t="s">
         <v>15</v>
       </c>
@@ -3275,10 +3298,10 @@
       <c r="B9" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="28">
         <v>1</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="28" t="s">
         <v>26</v>
       </c>
       <c r="E9" s="9" t="s">
@@ -3299,8 +3322,8 @@
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="26"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
       <c r="E10" s="6" t="s">
         <v>12</v>
       </c>
@@ -3319,8 +3342,8 @@
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="26"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="6" t="s">
         <v>13</v>
       </c>
@@ -3339,8 +3362,8 @@
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="26"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
       <c r="E12" s="6" t="s">
         <v>14</v>
       </c>
@@ -3359,8 +3382,8 @@
     </row>
     <row r="13" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="27"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
       <c r="E13" s="8" t="s">
         <v>15</v>
       </c>
@@ -3381,10 +3404,10 @@
       <c r="B14" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="28">
         <v>2</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="28" t="s">
         <v>25</v>
       </c>
       <c r="E14" s="9" t="s">
@@ -3417,8 +3440,8 @@
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="26"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
       <c r="E15" s="6" t="s">
         <v>12</v>
       </c>
@@ -3449,8 +3472,8 @@
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="26"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
       <c r="E16" s="6" t="s">
         <v>13</v>
       </c>
@@ -3481,8 +3504,8 @@
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="26"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
       <c r="E17" s="6" t="s">
         <v>14</v>
       </c>
@@ -3513,8 +3536,8 @@
     </row>
     <row r="18" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="27"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
       <c r="E18" s="8" t="s">
         <v>15</v>
       </c>
@@ -3547,10 +3570,10 @@
       <c r="B19" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="28">
         <v>3</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="28" t="s">
         <v>27</v>
       </c>
       <c r="E19" s="9" t="s">
@@ -3577,8 +3600,8 @@
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="26"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
       <c r="E20" s="6" t="s">
         <v>12</v>
       </c>
@@ -3603,8 +3626,8 @@
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="26"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
       <c r="E21" s="6" t="s">
         <v>13</v>
       </c>
@@ -3629,8 +3652,8 @@
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="26"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
       <c r="E22" s="6" t="s">
         <v>14</v>
       </c>
@@ -3655,8 +3678,8 @@
     </row>
     <row r="23" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="27"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
       <c r="E23" s="8" t="s">
         <v>15</v>
       </c>
@@ -3683,10 +3706,10 @@
       <c r="B24" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="22">
-        <v>4</v>
-      </c>
-      <c r="D24" s="22" t="s">
+      <c r="C24" s="28">
+        <v>4</v>
+      </c>
+      <c r="D24" s="28" t="s">
         <v>26</v>
       </c>
       <c r="E24" s="9" t="s">
@@ -3707,8 +3730,8 @@
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="26"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
       <c r="E25" s="6" t="s">
         <v>12</v>
       </c>
@@ -3727,8 +3750,8 @@
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="26"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
       <c r="E26" s="6" t="s">
         <v>13</v>
       </c>
@@ -3747,8 +3770,8 @@
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="26"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
       <c r="E27" s="6" t="s">
         <v>14</v>
       </c>
@@ -3767,8 +3790,8 @@
     </row>
     <row r="28" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="27"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
       <c r="E28" s="8" t="s">
         <v>15</v>
       </c>
@@ -3789,10 +3812,10 @@
       <c r="B29" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="22">
+      <c r="C29" s="28">
         <v>5</v>
       </c>
-      <c r="D29" s="22" t="s">
+      <c r="D29" s="28" t="s">
         <v>27</v>
       </c>
       <c r="E29" s="9" t="s">
@@ -3815,8 +3838,8 @@
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="26"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
       <c r="E30" s="6" t="s">
         <v>12</v>
       </c>
@@ -3837,8 +3860,8 @@
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="26"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
       <c r="E31" s="6" t="s">
         <v>13</v>
       </c>
@@ -3859,8 +3882,8 @@
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="26"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
       <c r="E32" s="6" t="s">
         <v>14</v>
       </c>
@@ -3881,8 +3904,8 @@
     </row>
     <row r="33" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="27"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
       <c r="E33" s="8" t="s">
         <v>15</v>
       </c>
@@ -3905,10 +3928,10 @@
       <c r="B34" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="22">
+      <c r="C34" s="28">
         <v>6</v>
       </c>
-      <c r="D34" s="22" t="s">
+      <c r="D34" s="28" t="s">
         <v>25</v>
       </c>
       <c r="E34" s="9" t="s">
@@ -3935,8 +3958,8 @@
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B35" s="26"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
       <c r="E35" s="6" t="s">
         <v>12</v>
       </c>
@@ -3961,8 +3984,8 @@
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" s="26"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
       <c r="E36" s="6" t="s">
         <v>13</v>
       </c>
@@ -3987,8 +4010,8 @@
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B37" s="26"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
       <c r="E37" s="6" t="s">
         <v>14</v>
       </c>
@@ -4013,8 +4036,8 @@
     </row>
     <row r="38" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="27"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
       <c r="E38" s="8" t="s">
         <v>15</v>
       </c>
@@ -4041,10 +4064,10 @@
       <c r="B39" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="22">
-        <v>7</v>
-      </c>
-      <c r="D39" s="22" t="s">
+      <c r="C39" s="28">
+        <v>7</v>
+      </c>
+      <c r="D39" s="28" t="s">
         <v>26</v>
       </c>
       <c r="E39" s="9" t="s">
@@ -4063,8 +4086,8 @@
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B40" s="26"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
       <c r="E40" s="6" t="s">
         <v>12</v>
       </c>
@@ -4081,8 +4104,8 @@
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B41" s="26"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
       <c r="E41" s="6" t="s">
         <v>13</v>
       </c>
@@ -4099,8 +4122,8 @@
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B42" s="26"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
       <c r="E42" s="6" t="s">
         <v>14</v>
       </c>
@@ -4117,8 +4140,8 @@
     </row>
     <row r="43" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="27"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
       <c r="E43" s="8" t="s">
         <v>15</v>
       </c>
@@ -4135,6 +4158,24 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="C39:C43"/>
+    <mergeCell ref="D39:D43"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="D24:D28"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="D19:D23"/>
     <mergeCell ref="F2:O2"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="C4:C8"/>
@@ -4142,24 +4183,6 @@
     <mergeCell ref="B9:B13"/>
     <mergeCell ref="C9:C13"/>
     <mergeCell ref="D9:D13"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="D14:D18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="D19:D23"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="D24:D28"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="D34:D38"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="C39:C43"/>
-    <mergeCell ref="D39:D43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4171,7 +4194,10 @@
   <dimension ref="B1:O43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4189,18 +4215,18 @@
       <c r="C2" s="11"/>
       <c r="D2" s="20"/>
       <c r="E2" s="19"/>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="30"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="24"/>
     </row>
     <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="12" t="s">
@@ -4250,10 +4276,10 @@
       <c r="B4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="28">
         <v>0</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="28" t="s">
         <v>28</v>
       </c>
       <c r="E4" s="5" t="s">
@@ -4274,8 +4300,8 @@
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="26"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
       <c r="E5" s="6" t="s">
         <v>12</v>
       </c>
@@ -4294,8 +4320,8 @@
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="26"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="6" t="s">
         <v>13</v>
       </c>
@@ -4314,8 +4340,8 @@
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="26"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>14</v>
       </c>
@@ -4334,8 +4360,8 @@
     </row>
     <row r="8" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="27"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
       <c r="E8" s="8" t="s">
         <v>15</v>
       </c>
@@ -4356,10 +4382,10 @@
       <c r="B9" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="28">
         <v>1</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="28" t="s">
         <v>26</v>
       </c>
       <c r="E9" s="9" t="s">
@@ -4380,8 +4406,8 @@
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="26"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
       <c r="E10" s="6" t="s">
         <v>12</v>
       </c>
@@ -4400,8 +4426,8 @@
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="26"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="6" t="s">
         <v>13</v>
       </c>
@@ -4420,8 +4446,8 @@
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="26"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
       <c r="E12" s="6" t="s">
         <v>14</v>
       </c>
@@ -4440,8 +4466,8 @@
     </row>
     <row r="13" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="27"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
       <c r="E13" s="8" t="s">
         <v>15</v>
       </c>
@@ -4462,10 +4488,10 @@
       <c r="B14" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="28">
         <v>2</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="28" t="s">
         <v>25</v>
       </c>
       <c r="E14" s="9" t="s">
@@ -4498,8 +4524,8 @@
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="26"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
       <c r="E15" s="6" t="s">
         <v>12</v>
       </c>
@@ -4530,8 +4556,8 @@
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="26"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
       <c r="E16" s="6" t="s">
         <v>13</v>
       </c>
@@ -4562,8 +4588,8 @@
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="26"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
       <c r="E17" s="6" t="s">
         <v>14</v>
       </c>
@@ -4594,8 +4620,8 @@
     </row>
     <row r="18" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="27"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
       <c r="E18" s="8" t="s">
         <v>15</v>
       </c>
@@ -4628,10 +4654,10 @@
       <c r="B19" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="28">
         <v>3</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="28" t="s">
         <v>27</v>
       </c>
       <c r="E19" s="9" t="s">
@@ -4658,8 +4684,8 @@
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="26"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
       <c r="E20" s="6" t="s">
         <v>12</v>
       </c>
@@ -4684,8 +4710,8 @@
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="26"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
       <c r="E21" s="6" t="s">
         <v>13</v>
       </c>
@@ -4710,8 +4736,8 @@
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="26"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
       <c r="E22" s="6" t="s">
         <v>14</v>
       </c>
@@ -4736,8 +4762,8 @@
     </row>
     <row r="23" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="27"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
       <c r="E23" s="8" t="s">
         <v>15</v>
       </c>
@@ -4764,10 +4790,10 @@
       <c r="B24" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="22">
-        <v>4</v>
-      </c>
-      <c r="D24" s="22" t="s">
+      <c r="C24" s="28">
+        <v>4</v>
+      </c>
+      <c r="D24" s="28" t="s">
         <v>25</v>
       </c>
       <c r="E24" s="9" t="s">
@@ -4798,8 +4824,8 @@
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="26"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
       <c r="E25" s="6" t="s">
         <v>12</v>
       </c>
@@ -4828,8 +4854,8 @@
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="26"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
       <c r="E26" s="6" t="s">
         <v>13</v>
       </c>
@@ -4858,8 +4884,8 @@
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="26"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
       <c r="E27" s="6" t="s">
         <v>14</v>
       </c>
@@ -4888,8 +4914,8 @@
     </row>
     <row r="28" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="27"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
       <c r="E28" s="8" t="s">
         <v>15</v>
       </c>
@@ -4920,10 +4946,10 @@
       <c r="B29" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="22">
+      <c r="C29" s="28">
         <v>5</v>
       </c>
-      <c r="D29" s="22" t="s">
+      <c r="D29" s="28" t="s">
         <v>26</v>
       </c>
       <c r="E29" s="9" t="s">
@@ -4942,8 +4968,8 @@
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="26"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
       <c r="E30" s="6" t="s">
         <v>12</v>
       </c>
@@ -4960,8 +4986,8 @@
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="26"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
       <c r="E31" s="6" t="s">
         <v>13</v>
       </c>
@@ -4978,8 +5004,8 @@
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="26"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
       <c r="E32" s="6" t="s">
         <v>14</v>
       </c>
@@ -4996,8 +5022,8 @@
     </row>
     <row r="33" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="27"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
       <c r="E33" s="8" t="s">
         <v>15</v>
       </c>
@@ -5016,16 +5042,18 @@
       <c r="B34" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="22">
+      <c r="C34" s="28">
         <v>6</v>
       </c>
-      <c r="D34" s="22" t="s">
+      <c r="D34" s="28" t="s">
         <v>27</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F34" s="18"/>
+      <c r="F34" s="18">
+        <v>11</v>
+      </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
@@ -5038,12 +5066,14 @@
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B35" s="26"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
       <c r="E35" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F35" s="16"/>
+      <c r="F35" s="16">
+        <v>3</v>
+      </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -5056,12 +5086,14 @@
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" s="26"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
       <c r="E36" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F36" s="16"/>
+      <c r="F36" s="16">
+        <v>5</v>
+      </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -5074,12 +5106,14 @@
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B37" s="26"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
       <c r="E37" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F37" s="16"/>
+      <c r="F37" s="16">
+        <v>3</v>
+      </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -5092,12 +5126,14 @@
     </row>
     <row r="38" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="27"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
       <c r="E38" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F38" s="17"/>
+      <c r="F38" s="17">
+        <v>-7.0000000000000007E-2</v>
+      </c>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
@@ -5112,10 +5148,10 @@
       <c r="B39" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="22">
-        <v>7</v>
-      </c>
-      <c r="D39" s="22" t="s">
+      <c r="C39" s="28">
+        <v>7</v>
+      </c>
+      <c r="D39" s="28" t="s">
         <v>26</v>
       </c>
       <c r="E39" s="9" t="s">
@@ -5134,8 +5170,8 @@
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B40" s="26"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
       <c r="E40" s="6" t="s">
         <v>12</v>
       </c>
@@ -5152,8 +5188,8 @@
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B41" s="26"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
       <c r="E41" s="6" t="s">
         <v>13</v>
       </c>
@@ -5170,8 +5206,8 @@
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B42" s="26"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
       <c r="E42" s="6" t="s">
         <v>14</v>
       </c>
@@ -5188,8 +5224,8 @@
     </row>
     <row r="43" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="27"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
       <c r="E43" s="8" t="s">
         <v>15</v>
       </c>
@@ -5206,6 +5242,24 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="C39:C43"/>
+    <mergeCell ref="D39:D43"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="D24:D28"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="D19:D23"/>
     <mergeCell ref="F2:O2"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="C4:C8"/>
@@ -5213,24 +5267,6 @@
     <mergeCell ref="B9:B13"/>
     <mergeCell ref="C9:C13"/>
     <mergeCell ref="D9:D13"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="D14:D18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="D19:D23"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="D24:D28"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="D34:D38"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="C39:C43"/>
-    <mergeCell ref="D39:D43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5242,7 +5278,10 @@
   <dimension ref="B1:O43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5260,18 +5299,18 @@
       <c r="C2" s="11"/>
       <c r="D2" s="20"/>
       <c r="E2" s="19"/>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="30"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="24"/>
     </row>
     <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="12" t="s">
@@ -5321,10 +5360,10 @@
       <c r="B4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="28">
         <v>0</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="28" t="s">
         <v>28</v>
       </c>
       <c r="E4" s="5" t="s">
@@ -5345,8 +5384,8 @@
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="26"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
       <c r="E5" s="6" t="s">
         <v>12</v>
       </c>
@@ -5365,8 +5404,8 @@
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="26"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="6" t="s">
         <v>13</v>
       </c>
@@ -5385,8 +5424,8 @@
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="26"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>14</v>
       </c>
@@ -5405,8 +5444,8 @@
     </row>
     <row r="8" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="27"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
       <c r="E8" s="8" t="s">
         <v>15</v>
       </c>
@@ -5427,10 +5466,10 @@
       <c r="B9" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="28">
         <v>1</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="28" t="s">
         <v>26</v>
       </c>
       <c r="E9" s="9" t="s">
@@ -5451,8 +5490,8 @@
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="26"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
       <c r="E10" s="6" t="s">
         <v>12</v>
       </c>
@@ -5471,8 +5510,8 @@
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="26"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="6" t="s">
         <v>13</v>
       </c>
@@ -5491,8 +5530,8 @@
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="26"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
       <c r="E12" s="6" t="s">
         <v>14</v>
       </c>
@@ -5511,8 +5550,8 @@
     </row>
     <row r="13" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="27"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
       <c r="E13" s="8" t="s">
         <v>15</v>
       </c>
@@ -5533,10 +5572,10 @@
       <c r="B14" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="28">
         <v>2</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="28" t="s">
         <v>25</v>
       </c>
       <c r="E14" s="9" t="s">
@@ -5569,8 +5608,8 @@
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="26"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
       <c r="E15" s="6" t="s">
         <v>12</v>
       </c>
@@ -5601,8 +5640,8 @@
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="26"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
       <c r="E16" s="6" t="s">
         <v>13</v>
       </c>
@@ -5633,8 +5672,8 @@
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="26"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
       <c r="E17" s="6" t="s">
         <v>14</v>
       </c>
@@ -5665,8 +5704,8 @@
     </row>
     <row r="18" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="27"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
       <c r="E18" s="8" t="s">
         <v>15</v>
       </c>
@@ -5699,10 +5738,10 @@
       <c r="B19" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="28">
         <v>3</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="28" t="s">
         <v>27</v>
       </c>
       <c r="E19" s="9" t="s">
@@ -5729,8 +5768,8 @@
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="26"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
       <c r="E20" s="6" t="s">
         <v>12</v>
       </c>
@@ -5755,8 +5794,8 @@
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="26"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
       <c r="E21" s="6" t="s">
         <v>13</v>
       </c>
@@ -5781,8 +5820,8 @@
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="26"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
       <c r="E22" s="6" t="s">
         <v>14</v>
       </c>
@@ -5807,8 +5846,8 @@
     </row>
     <row r="23" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="27"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
       <c r="E23" s="8" t="s">
         <v>15</v>
       </c>
@@ -5835,10 +5874,10 @@
       <c r="B24" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="22">
-        <v>4</v>
-      </c>
-      <c r="D24" s="22" t="s">
+      <c r="C24" s="28">
+        <v>4</v>
+      </c>
+      <c r="D24" s="28" t="s">
         <v>26</v>
       </c>
       <c r="E24" s="9" t="s">
@@ -5857,8 +5896,8 @@
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="26"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
       <c r="E25" s="6" t="s">
         <v>12</v>
       </c>
@@ -5875,8 +5914,8 @@
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="26"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
       <c r="E26" s="6" t="s">
         <v>13</v>
       </c>
@@ -5893,8 +5932,8 @@
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="26"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
       <c r="E27" s="6" t="s">
         <v>14</v>
       </c>
@@ -5911,8 +5950,8 @@
     </row>
     <row r="28" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="27"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
       <c r="E28" s="8" t="s">
         <v>15</v>
       </c>
@@ -5931,10 +5970,10 @@
       <c r="B29" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="22">
+      <c r="C29" s="28">
         <v>5</v>
       </c>
-      <c r="D29" s="22" t="s">
+      <c r="D29" s="28" t="s">
         <v>25</v>
       </c>
       <c r="E29" s="9" t="s">
@@ -5965,8 +6004,8 @@
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="26"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
       <c r="E30" s="6" t="s">
         <v>12</v>
       </c>
@@ -5995,8 +6034,8 @@
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="26"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
       <c r="E31" s="6" t="s">
         <v>13</v>
       </c>
@@ -6025,8 +6064,8 @@
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="26"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
       <c r="E32" s="6" t="s">
         <v>14</v>
       </c>
@@ -6055,8 +6094,8 @@
     </row>
     <row r="33" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="27"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
       <c r="E33" s="8" t="s">
         <v>15</v>
       </c>
@@ -6087,10 +6126,10 @@
       <c r="B34" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="22">
+      <c r="C34" s="28">
         <v>6</v>
       </c>
-      <c r="D34" s="22" t="s">
+      <c r="D34" s="28" t="s">
         <v>27</v>
       </c>
       <c r="E34" s="9" t="s">
@@ -6109,8 +6148,8 @@
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B35" s="26"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
       <c r="E35" s="6" t="s">
         <v>12</v>
       </c>
@@ -6127,8 +6166,8 @@
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" s="26"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
       <c r="E36" s="6" t="s">
         <v>13</v>
       </c>
@@ -6145,8 +6184,8 @@
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B37" s="26"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
       <c r="E37" s="6" t="s">
         <v>14</v>
       </c>
@@ -6163,8 +6202,8 @@
     </row>
     <row r="38" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="27"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
       <c r="E38" s="8" t="s">
         <v>15</v>
       </c>
@@ -6183,10 +6222,10 @@
       <c r="B39" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C39" s="22">
-        <v>7</v>
-      </c>
-      <c r="D39" s="22" t="s">
+      <c r="C39" s="28">
+        <v>7</v>
+      </c>
+      <c r="D39" s="28" t="s">
         <v>26</v>
       </c>
       <c r="E39" s="9" t="s">
@@ -6205,8 +6244,8 @@
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B40" s="26"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
       <c r="E40" s="6" t="s">
         <v>12</v>
       </c>
@@ -6223,8 +6262,8 @@
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B41" s="26"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
       <c r="E41" s="6" t="s">
         <v>13</v>
       </c>
@@ -6241,8 +6280,8 @@
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B42" s="26"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
       <c r="E42" s="6" t="s">
         <v>14</v>
       </c>
@@ -6259,8 +6298,8 @@
     </row>
     <row r="43" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="27"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
       <c r="E43" s="8" t="s">
         <v>15</v>
       </c>
@@ -6277,6 +6316,24 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="C39:C43"/>
+    <mergeCell ref="D39:D43"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="D24:D28"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="D19:D23"/>
     <mergeCell ref="F2:O2"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="C4:C8"/>
@@ -6284,24 +6341,6 @@
     <mergeCell ref="B9:B13"/>
     <mergeCell ref="C9:C13"/>
     <mergeCell ref="D9:D13"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="D14:D18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="D19:D23"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="D24:D28"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="D34:D38"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="C39:C43"/>
-    <mergeCell ref="D39:D43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6313,7 +6352,10 @@
   <dimension ref="B1:O43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6331,18 +6373,18 @@
       <c r="C2" s="11"/>
       <c r="D2" s="20"/>
       <c r="E2" s="19"/>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="30"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="24"/>
     </row>
     <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="12" t="s">
@@ -6392,10 +6434,10 @@
       <c r="B4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="28">
         <v>0</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="28" t="s">
         <v>28</v>
       </c>
       <c r="E4" s="5" t="s">
@@ -6416,8 +6458,8 @@
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="26"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
       <c r="E5" s="6" t="s">
         <v>12</v>
       </c>
@@ -6436,8 +6478,8 @@
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="26"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="6" t="s">
         <v>13</v>
       </c>
@@ -6456,8 +6498,8 @@
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="26"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>14</v>
       </c>
@@ -6476,8 +6518,8 @@
     </row>
     <row r="8" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="27"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
       <c r="E8" s="8" t="s">
         <v>15</v>
       </c>
@@ -6498,10 +6540,10 @@
       <c r="B9" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="28">
         <v>1</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="28" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="9" t="s">
@@ -6530,8 +6572,8 @@
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="26"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
       <c r="E10" s="6" t="s">
         <v>12</v>
       </c>
@@ -6558,8 +6600,8 @@
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="26"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="6" t="s">
         <v>13</v>
       </c>
@@ -6586,8 +6628,8 @@
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="26"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
       <c r="E12" s="6" t="s">
         <v>14</v>
       </c>
@@ -6614,8 +6656,8 @@
     </row>
     <row r="13" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="27"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
       <c r="E13" s="8" t="s">
         <v>15</v>
       </c>
@@ -6644,10 +6686,10 @@
       <c r="B14" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="28">
         <v>2</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="28" t="s">
         <v>27</v>
       </c>
       <c r="E14" s="9" t="s">
@@ -6674,8 +6716,8 @@
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="26"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
       <c r="E15" s="6" t="s">
         <v>12</v>
       </c>
@@ -6700,8 +6742,8 @@
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="26"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
       <c r="E16" s="6" t="s">
         <v>13</v>
       </c>
@@ -6726,8 +6768,8 @@
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="26"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
       <c r="E17" s="6" t="s">
         <v>14</v>
       </c>
@@ -6752,8 +6794,8 @@
     </row>
     <row r="18" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="27"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
       <c r="E18" s="8" t="s">
         <v>15</v>
       </c>
@@ -6780,10 +6822,10 @@
       <c r="B19" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="28">
         <v>3</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="28" t="s">
         <v>26</v>
       </c>
       <c r="E19" s="9" t="s">
@@ -6802,8 +6844,8 @@
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="26"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
       <c r="E20" s="6" t="s">
         <v>12</v>
       </c>
@@ -6820,8 +6862,8 @@
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="26"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
       <c r="E21" s="6" t="s">
         <v>13</v>
       </c>
@@ -6838,8 +6880,8 @@
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="26"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
       <c r="E22" s="6" t="s">
         <v>14</v>
       </c>
@@ -6856,8 +6898,8 @@
     </row>
     <row r="23" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="27"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
       <c r="E23" s="8" t="s">
         <v>15</v>
       </c>
@@ -6876,10 +6918,10 @@
       <c r="B24" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="22">
-        <v>4</v>
-      </c>
-      <c r="D24" s="22" t="s">
+      <c r="C24" s="28">
+        <v>4</v>
+      </c>
+      <c r="D24" s="28" t="s">
         <v>25</v>
       </c>
       <c r="E24" s="9" t="s">
@@ -6912,8 +6954,8 @@
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="26"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
       <c r="E25" s="6" t="s">
         <v>12</v>
       </c>
@@ -6944,8 +6986,8 @@
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="26"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
       <c r="E26" s="6" t="s">
         <v>13</v>
       </c>
@@ -6976,8 +7018,8 @@
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="26"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
       <c r="E27" s="6" t="s">
         <v>14</v>
       </c>
@@ -7008,8 +7050,8 @@
     </row>
     <row r="28" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="27"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
       <c r="E28" s="8" t="s">
         <v>15</v>
       </c>
@@ -7042,10 +7084,10 @@
       <c r="B29" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="22">
+      <c r="C29" s="28">
         <v>5</v>
       </c>
-      <c r="D29" s="22" t="s">
+      <c r="D29" s="28" t="s">
         <v>27</v>
       </c>
       <c r="E29" s="9" t="s">
@@ -7070,8 +7112,8 @@
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="26"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
       <c r="E30" s="6" t="s">
         <v>12</v>
       </c>
@@ -7094,8 +7136,8 @@
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="26"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
       <c r="E31" s="6" t="s">
         <v>13</v>
       </c>
@@ -7118,8 +7160,8 @@
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="26"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
       <c r="E32" s="6" t="s">
         <v>14</v>
       </c>
@@ -7142,8 +7184,8 @@
     </row>
     <row r="33" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="27"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
       <c r="E33" s="8" t="s">
         <v>15</v>
       </c>
@@ -7168,10 +7210,10 @@
       <c r="B34" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="C34" s="22">
+      <c r="C34" s="28">
         <v>6</v>
       </c>
-      <c r="D34" s="22" t="s">
+      <c r="D34" s="28" t="s">
         <v>26</v>
       </c>
       <c r="E34" s="9" t="s">
@@ -7190,8 +7232,8 @@
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B35" s="26"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
       <c r="E35" s="6" t="s">
         <v>12</v>
       </c>
@@ -7208,8 +7250,8 @@
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" s="26"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
       <c r="E36" s="6" t="s">
         <v>13</v>
       </c>
@@ -7226,8 +7268,8 @@
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B37" s="26"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
       <c r="E37" s="6" t="s">
         <v>14</v>
       </c>
@@ -7244,8 +7286,8 @@
     </row>
     <row r="38" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="27"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
       <c r="E38" s="8" t="s">
         <v>15</v>
       </c>
@@ -7264,10 +7306,10 @@
       <c r="B39" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C39" s="22">
-        <v>7</v>
-      </c>
-      <c r="D39" s="22" t="s">
+      <c r="C39" s="28">
+        <v>7</v>
+      </c>
+      <c r="D39" s="28" t="s">
         <v>26</v>
       </c>
       <c r="E39" s="9" t="s">
@@ -7286,8 +7328,8 @@
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B40" s="26"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
       <c r="E40" s="6" t="s">
         <v>12</v>
       </c>
@@ -7304,8 +7346,8 @@
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B41" s="26"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
       <c r="E41" s="6" t="s">
         <v>13</v>
       </c>
@@ -7322,8 +7364,8 @@
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B42" s="26"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
       <c r="E42" s="6" t="s">
         <v>14</v>
       </c>
@@ -7340,8 +7382,8 @@
     </row>
     <row r="43" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="27"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
       <c r="E43" s="8" t="s">
         <v>15</v>
       </c>
@@ -7358,6 +7400,24 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="C39:C43"/>
+    <mergeCell ref="D39:D43"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="D24:D28"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="D19:D23"/>
     <mergeCell ref="F2:O2"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="C4:C8"/>
@@ -7365,24 +7425,6 @@
     <mergeCell ref="B9:B13"/>
     <mergeCell ref="C9:C13"/>
     <mergeCell ref="D9:D13"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="D14:D18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="D19:D23"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="D24:D28"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="D34:D38"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="C39:C43"/>
-    <mergeCell ref="D39:D43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataOnParts.xlsx
+++ b/DataOnParts.xlsx
@@ -1,24 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\F1ManagerOptimalConfiguration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E6D031-AC63-4031-8068-BE6A0F9EAAD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4874B4-24DE-4B2D-8E9C-047F665F69C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15540" xr2:uid="{7B99EB5A-1958-428B-8D9A-88A9EE4EF4B6}"/>
+    <workbookView xWindow="25080" yWindow="1515" windowWidth="19440" windowHeight="15150" activeTab="2" xr2:uid="{7B99EB5A-1958-428B-8D9A-88A9EE4EF4B6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Brakes" sheetId="1" r:id="rId1"/>
-    <sheet name="Gearbox" sheetId="2" r:id="rId2"/>
-    <sheet name="RearWing" sheetId="3" r:id="rId3"/>
-    <sheet name="FrontWing" sheetId="4" r:id="rId4"/>
-    <sheet name="Suspension" sheetId="5" r:id="rId5"/>
-    <sheet name="Engine" sheetId="6" r:id="rId6"/>
+    <sheet name="Stats" sheetId="7" r:id="rId1"/>
+    <sheet name="Stats per Cirquit (Positions)" sheetId="8" r:id="rId2"/>
+    <sheet name="Stats per Cirquit (Tyres)" sheetId="9" r:id="rId3"/>
+    <sheet name="Brakes" sheetId="1" r:id="rId4"/>
+    <sheet name="Gearbox" sheetId="2" r:id="rId5"/>
+    <sheet name="RearWing" sheetId="3" r:id="rId6"/>
+    <sheet name="FrontWing" sheetId="4" r:id="rId7"/>
+    <sheet name="Suspension" sheetId="5" r:id="rId8"/>
+    <sheet name="Engine" sheetId="6" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="104">
   <si>
     <t>Level</t>
   </si>
@@ -207,6 +210,147 @@
   </si>
   <si>
     <t>Passion</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>S5</t>
+  </si>
+  <si>
+    <t>S6</t>
+  </si>
+  <si>
+    <t>S7</t>
+  </si>
+  <si>
+    <t>S8</t>
+  </si>
+  <si>
+    <t>S9</t>
+  </si>
+  <si>
+    <t>13-19, July</t>
+  </si>
+  <si>
+    <t>Win</t>
+  </si>
+  <si>
+    <t>Loss</t>
+  </si>
+  <si>
+    <t>Ratio</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Platinum</t>
+  </si>
+  <si>
+    <t>Legendary</t>
+  </si>
+  <si>
+    <t>Prize</t>
+  </si>
+  <si>
+    <t>Money Prize</t>
+  </si>
+  <si>
+    <t>Perez</t>
+  </si>
+  <si>
+    <t>Norris</t>
+  </si>
+  <si>
+    <t>Grosjean</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Melbourne</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>YAS MARINA</t>
+  </si>
+  <si>
+    <t>Series 4</t>
+  </si>
+  <si>
+    <t>Hungaroring</t>
+  </si>
+  <si>
+    <t>Sochi</t>
+  </si>
+  <si>
+    <t>Paul Ricard</t>
+  </si>
+  <si>
+    <t>Series 1</t>
+  </si>
+  <si>
+    <t>Barcelona</t>
+  </si>
+  <si>
+    <t>Red Bull</t>
+  </si>
+  <si>
+    <t>Monza</t>
+  </si>
+  <si>
+    <t>Series 2</t>
+  </si>
+  <si>
+    <t>Series 3</t>
+  </si>
+  <si>
+    <t>Spa</t>
+  </si>
+  <si>
+    <t>Silverstone</t>
+  </si>
+  <si>
+    <t>Coming Soon</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>NoR</t>
+  </si>
+  <si>
+    <t>Pos</t>
+  </si>
+  <si>
+    <t>Standar</t>
   </si>
 </sst>
 </file>
@@ -240,7 +384,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -577,11 +721,78 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -604,14 +815,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -622,13 +833,115 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -944,14 +1257,1294 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99E5E86C-C84B-458E-9C13-DEE9786E23DC}">
+  <dimension ref="B2:N11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="31"/>
+    <col min="2" max="2" width="12.140625" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.140625" style="31" customWidth="1"/>
+    <col min="5" max="7" width="9.140625" style="31"/>
+    <col min="8" max="8" width="14" style="31" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="31"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B2" s="35"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="L2" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="M2" s="33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="36"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33">
+        <v>5</v>
+      </c>
+      <c r="I3" s="33">
+        <v>0</v>
+      </c>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="32"/>
+      <c r="C4" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="36"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33">
+        <v>6</v>
+      </c>
+      <c r="I4" s="33">
+        <v>1</v>
+      </c>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="32"/>
+      <c r="C5" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="36"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33">
+        <f>H4+H3</f>
+        <v>11</v>
+      </c>
+      <c r="I5" s="33">
+        <f>I4+I3</f>
+        <v>1</v>
+      </c>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="32"/>
+      <c r="C6" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="36"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34">
+        <f>H3/H5</f>
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="I6" s="34">
+        <f>I3/I5</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="32"/>
+      <c r="C7" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="36"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39">
+        <f>H3*60000-H4*60000</f>
+        <v>-60000</v>
+      </c>
+      <c r="I7" s="39">
+        <f>I3*200000-I4*200000</f>
+        <v>-200000</v>
+      </c>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="64">
+        <f>SUM(E7:M7)</f>
+        <v>-260000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="32"/>
+      <c r="C8" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33">
+        <v>3</v>
+      </c>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33">
+        <v>2</v>
+      </c>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC2ED39F-DE9F-4CF9-87FA-926044CF7487}">
+  <dimension ref="B2:AK10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="4" topLeftCell="U5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="V9" sqref="V9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.5703125" style="31" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="31"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="33"/>
+      <c r="AG2" s="33"/>
+      <c r="AH2" s="33"/>
+      <c r="AI2" s="33"/>
+      <c r="AJ2" s="33"/>
+      <c r="AK2" s="33"/>
+    </row>
+    <row r="3" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="36"/>
+      <c r="F3" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" s="36"/>
+      <c r="H3" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="36"/>
+      <c r="J3" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="K3" s="36"/>
+      <c r="L3" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="M3" s="36"/>
+      <c r="N3" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="O3" s="36"/>
+      <c r="P3" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="S3" s="36"/>
+      <c r="T3" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="U3" s="36"/>
+      <c r="V3" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="W3" s="36"/>
+      <c r="X3" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y3" s="36"/>
+      <c r="Z3" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC3" s="33"/>
+      <c r="AD3" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE3" s="33"/>
+      <c r="AF3" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG3" s="33"/>
+      <c r="AH3" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI3" s="33"/>
+      <c r="AJ3" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK3" s="33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="J4" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="K4" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="L4" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="M4" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="N4" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="O4" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="P4" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q4" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="R4" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="S4" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="T4" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="U4" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="V4" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="W4" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="X4" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y4" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z4" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA4" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB4" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC4" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD4" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE4" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF4" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG4" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH4" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI4" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ4" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK4" s="33"/>
+    </row>
+    <row r="5" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B5" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="35">
+        <v>2</v>
+      </c>
+      <c r="W5" s="36"/>
+      <c r="X5" s="35">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="36"/>
+      <c r="Z5" s="33"/>
+      <c r="AA5" s="33"/>
+      <c r="AB5" s="33"/>
+      <c r="AC5" s="33"/>
+      <c r="AD5" s="33"/>
+      <c r="AE5" s="33"/>
+      <c r="AF5" s="33"/>
+      <c r="AG5" s="33"/>
+      <c r="AH5" s="33"/>
+      <c r="AI5" s="33"/>
+      <c r="AJ5" s="33"/>
+      <c r="AK5" s="33"/>
+    </row>
+    <row r="6" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B6" s="41"/>
+      <c r="C6" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="33"/>
+      <c r="T6" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="U6" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="V6" s="33">
+        <f>(15+16)/V5</f>
+        <v>15.5</v>
+      </c>
+      <c r="W6" s="33">
+        <f>(11+7)/V5</f>
+        <v>9</v>
+      </c>
+      <c r="X6" s="33">
+        <f>(7)/X5</f>
+        <v>7</v>
+      </c>
+      <c r="Y6" s="33">
+        <f>(2)/X5</f>
+        <v>2</v>
+      </c>
+      <c r="Z6" s="33"/>
+      <c r="AA6" s="33"/>
+      <c r="AB6" s="33"/>
+      <c r="AC6" s="33"/>
+      <c r="AD6" s="33"/>
+      <c r="AE6" s="33"/>
+      <c r="AF6" s="33"/>
+      <c r="AG6" s="33"/>
+      <c r="AH6" s="33"/>
+      <c r="AI6" s="33"/>
+      <c r="AJ6" s="33"/>
+      <c r="AK6" s="33"/>
+    </row>
+    <row r="7" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B7" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="33"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="35">
+        <v>2</v>
+      </c>
+      <c r="W7" s="36"/>
+      <c r="X7" s="35">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="36"/>
+      <c r="Z7" s="33"/>
+      <c r="AA7" s="33"/>
+      <c r="AB7" s="33"/>
+      <c r="AC7" s="33"/>
+      <c r="AD7" s="33"/>
+      <c r="AE7" s="33"/>
+      <c r="AF7" s="33"/>
+      <c r="AG7" s="33"/>
+      <c r="AH7" s="33"/>
+      <c r="AI7" s="33"/>
+      <c r="AJ7" s="33"/>
+      <c r="AK7" s="33"/>
+    </row>
+    <row r="8" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B8" s="41"/>
+      <c r="C8" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="U8" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="V8" s="33">
+        <f>(12+10)/V7</f>
+        <v>11</v>
+      </c>
+      <c r="W8" s="33">
+        <f>(8+3)/V7</f>
+        <v>5.5</v>
+      </c>
+      <c r="X8" s="33">
+        <f>(19)/X7</f>
+        <v>19</v>
+      </c>
+      <c r="Y8" s="33">
+        <f>(13)/X7</f>
+        <v>13</v>
+      </c>
+      <c r="Z8" s="33"/>
+      <c r="AA8" s="33"/>
+      <c r="AB8" s="33"/>
+      <c r="AC8" s="33"/>
+      <c r="AD8" s="33"/>
+      <c r="AE8" s="33"/>
+      <c r="AF8" s="33"/>
+      <c r="AG8" s="33"/>
+      <c r="AH8" s="33"/>
+      <c r="AI8" s="33"/>
+      <c r="AJ8" s="33"/>
+      <c r="AK8" s="33"/>
+    </row>
+    <row r="9" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B9" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="33"/>
+      <c r="S9" s="33"/>
+      <c r="T9" s="33"/>
+      <c r="U9" s="33"/>
+      <c r="V9" s="33"/>
+      <c r="W9" s="33"/>
+      <c r="X9" s="33"/>
+      <c r="Y9" s="33"/>
+      <c r="Z9" s="33"/>
+      <c r="AA9" s="33"/>
+      <c r="AB9" s="33"/>
+      <c r="AC9" s="33"/>
+      <c r="AD9" s="33"/>
+      <c r="AE9" s="33"/>
+      <c r="AF9" s="33"/>
+      <c r="AG9" s="33"/>
+      <c r="AH9" s="33"/>
+      <c r="AI9" s="33"/>
+      <c r="AJ9" s="33"/>
+      <c r="AK9" s="33"/>
+    </row>
+    <row r="10" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B10" s="41"/>
+      <c r="C10" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="U10" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="V10" s="33"/>
+      <c r="W10" s="33"/>
+      <c r="X10" s="33"/>
+      <c r="Y10" s="33"/>
+      <c r="Z10" s="33"/>
+      <c r="AA10" s="33"/>
+      <c r="AB10" s="33"/>
+      <c r="AC10" s="33"/>
+      <c r="AD10" s="33"/>
+      <c r="AE10" s="33"/>
+      <c r="AF10" s="33"/>
+      <c r="AG10" s="33"/>
+      <c r="AH10" s="33"/>
+      <c r="AI10" s="33"/>
+      <c r="AJ10" s="33"/>
+      <c r="AK10" s="33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="P2:U2"/>
+    <mergeCell ref="V2:AA2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E484BF98-E321-4716-BBEC-C2A0307E1603}">
+  <dimension ref="B1:T15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="M12" sqref="M12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" style="31" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="12" style="31"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B2" s="50"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="48"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" s="48"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="K2" s="48"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="N2" s="48"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="44"/>
+    </row>
+    <row r="3" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="51"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="I3" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="K3" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="L3" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="M3" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="N3" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="O3" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="P3" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q3" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="R3" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="S3" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="T3" s="52" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B4" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="47"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="57">
+        <v>2</v>
+      </c>
+      <c r="N4" s="43">
+        <v>1</v>
+      </c>
+      <c r="O4" s="44">
+        <v>0</v>
+      </c>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="43"/>
+      <c r="S4" s="43"/>
+      <c r="T4" s="44"/>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B5" s="51"/>
+      <c r="C5" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="62"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="M5" s="38">
+        <f>(33.48+33.59)/M4</f>
+        <v>33.534999999999997</v>
+      </c>
+      <c r="N5" s="33">
+        <f>(34.602)/N4</f>
+        <v>34.601999999999997</v>
+      </c>
+      <c r="O5" s="52"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="52"/>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B6" s="51"/>
+      <c r="C6" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="62"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="M6" s="38">
+        <f>(35.343+35.291)/M4</f>
+        <v>35.317</v>
+      </c>
+      <c r="N6" s="33">
+        <f>(37.004)/N4</f>
+        <v>37.003999999999998</v>
+      </c>
+      <c r="O6" s="52"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="33"/>
+      <c r="T6" s="52"/>
+    </row>
+    <row r="7" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="53"/>
+      <c r="C7" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="49"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="M7" s="58">
+        <f>(42.575+42.475)/M4</f>
+        <v>42.525000000000006</v>
+      </c>
+      <c r="N7" s="45"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="58"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="46"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B8" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="47"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="57">
+        <v>2</v>
+      </c>
+      <c r="N8" s="43">
+        <v>1</v>
+      </c>
+      <c r="O8" s="44">
+        <v>0</v>
+      </c>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="44"/>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B9" s="51"/>
+      <c r="C9" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="62"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="M9" s="38">
+        <f>(33.431+33.371)/M8</f>
+        <v>33.400999999999996</v>
+      </c>
+      <c r="N9" s="33">
+        <f>(35.094)/N8</f>
+        <v>35.094000000000001</v>
+      </c>
+      <c r="O9" s="52"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="33"/>
+      <c r="S9" s="33"/>
+      <c r="T9" s="52"/>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B10" s="51"/>
+      <c r="C10" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="62"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="M10" s="38">
+        <f>(35.409+35.644)/M8</f>
+        <v>35.526499999999999</v>
+      </c>
+      <c r="N10" s="33">
+        <f>(37.685)/N8</f>
+        <v>37.685000000000002</v>
+      </c>
+      <c r="O10" s="52"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="52"/>
+    </row>
+    <row r="11" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="53"/>
+      <c r="C11" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="49"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="M11" s="58">
+        <f>(42.575+42.834)/M8</f>
+        <v>42.704500000000003</v>
+      </c>
+      <c r="N11" s="45"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="58"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="45"/>
+      <c r="S11" s="45"/>
+      <c r="T11" s="46"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B12" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="63"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="59">
+        <v>0</v>
+      </c>
+      <c r="N12" s="42">
+        <v>0</v>
+      </c>
+      <c r="O12" s="55">
+        <v>0</v>
+      </c>
+      <c r="P12" s="59"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="42"/>
+      <c r="T12" s="55"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B13" s="51"/>
+      <c r="C13" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="62"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="M13" s="38"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="33"/>
+      <c r="S13" s="33"/>
+      <c r="T13" s="52"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B14" s="51"/>
+      <c r="C14" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="62"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="M14" s="38"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="33"/>
+      <c r="S14" s="33"/>
+      <c r="T14" s="52"/>
+    </row>
+    <row r="15" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="53"/>
+      <c r="C15" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" s="49"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="M15" s="58"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="58"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="45"/>
+      <c r="T15" s="46"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6BEEB3A-B90F-447E-9666-8367BEDBC262}">
   <dimension ref="B1:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="3" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H39" sqref="H39"/>
+      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -969,18 +2562,18 @@
       <c r="C2" s="11"/>
       <c r="D2" s="20"/>
       <c r="E2" s="19"/>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="24"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="30"/>
     </row>
     <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="12" t="s">
@@ -1030,10 +2623,10 @@
       <c r="B4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="22">
         <v>0</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="22" t="s">
         <v>28</v>
       </c>
       <c r="E4" s="5" t="s">
@@ -1054,8 +2647,8 @@
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="26"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
       <c r="E5" s="6" t="s">
         <v>12</v>
       </c>
@@ -1074,8 +2667,8 @@
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="26"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
       <c r="E6" s="6" t="s">
         <v>13</v>
       </c>
@@ -1094,8 +2687,8 @@
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="26"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
       <c r="E7" s="6" t="s">
         <v>14</v>
       </c>
@@ -1114,8 +2707,8 @@
     </row>
     <row r="8" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="27"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
       <c r="E8" s="8" t="s">
         <v>15</v>
       </c>
@@ -1136,10 +2729,10 @@
       <c r="B9" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="22">
         <v>1</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="22" t="s">
         <v>27</v>
       </c>
       <c r="E9" s="9" t="s">
@@ -1157,7 +2750,9 @@
       <c r="I9" s="3">
         <v>7</v>
       </c>
-      <c r="J9" s="3"/>
+      <c r="J9" s="3">
+        <v>7</v>
+      </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -1166,8 +2761,8 @@
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="26"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
       <c r="E10" s="6" t="s">
         <v>12</v>
       </c>
@@ -1183,7 +2778,9 @@
       <c r="I10" s="1">
         <v>4</v>
       </c>
-      <c r="J10" s="1"/>
+      <c r="J10" s="1">
+        <v>4</v>
+      </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -1192,8 +2789,8 @@
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="26"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
       <c r="E11" s="6" t="s">
         <v>13</v>
       </c>
@@ -1209,7 +2806,9 @@
       <c r="I11" s="1">
         <v>10</v>
       </c>
-      <c r="J11" s="1"/>
+      <c r="J11" s="1">
+        <v>12</v>
+      </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -1218,8 +2817,8 @@
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="26"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
       <c r="E12" s="6" t="s">
         <v>14</v>
       </c>
@@ -1235,7 +2834,9 @@
       <c r="I12" s="1">
         <v>4</v>
       </c>
-      <c r="J12" s="1"/>
+      <c r="J12" s="1">
+        <v>4</v>
+      </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -1244,8 +2845,8 @@
     </row>
     <row r="13" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="27"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
       <c r="E13" s="8" t="s">
         <v>15</v>
       </c>
@@ -1261,7 +2862,9 @@
       <c r="I13" s="7">
         <v>0</v>
       </c>
-      <c r="J13" s="7"/>
+      <c r="J13" s="7">
+        <v>0</v>
+      </c>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
@@ -1272,10 +2875,10 @@
       <c r="B14" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="22">
         <v>2</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="22" t="s">
         <v>26</v>
       </c>
       <c r="E14" s="9" t="s">
@@ -1296,8 +2899,8 @@
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="26"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
       <c r="E15" s="6" t="s">
         <v>12</v>
       </c>
@@ -1316,8 +2919,8 @@
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="26"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
       <c r="E16" s="6" t="s">
         <v>13</v>
       </c>
@@ -1336,8 +2939,8 @@
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="26"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
       <c r="E17" s="6" t="s">
         <v>14</v>
       </c>
@@ -1356,8 +2959,8 @@
     </row>
     <row r="18" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="27"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
       <c r="E18" s="8" t="s">
         <v>15</v>
       </c>
@@ -1378,10 +2981,10 @@
       <c r="B19" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="28">
+      <c r="C19" s="22">
         <v>3</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="D19" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E19" s="9" t="s">
@@ -1414,8 +3017,8 @@
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="26"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
       <c r="E20" s="6" t="s">
         <v>12</v>
       </c>
@@ -1446,8 +3049,8 @@
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="26"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
       <c r="E21" s="6" t="s">
         <v>13</v>
       </c>
@@ -1478,8 +3081,8 @@
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="26"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
       <c r="E22" s="6" t="s">
         <v>14</v>
       </c>
@@ -1510,8 +3113,8 @@
     </row>
     <row r="23" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="27"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
       <c r="E23" s="8" t="s">
         <v>15</v>
       </c>
@@ -1544,10 +3147,10 @@
       <c r="B24" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="28">
-        <v>4</v>
-      </c>
-      <c r="D24" s="28" t="s">
+      <c r="C24" s="22">
+        <v>4</v>
+      </c>
+      <c r="D24" s="22" t="s">
         <v>26</v>
       </c>
       <c r="E24" s="9" t="s">
@@ -1568,8 +3171,8 @@
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="26"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
       <c r="E25" s="6" t="s">
         <v>12</v>
       </c>
@@ -1588,8 +3191,8 @@
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="26"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
       <c r="E26" s="6" t="s">
         <v>13</v>
       </c>
@@ -1608,8 +3211,8 @@
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="26"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
       <c r="E27" s="6" t="s">
         <v>14</v>
       </c>
@@ -1628,8 +3231,8 @@
     </row>
     <row r="28" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="27"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
       <c r="E28" s="8" t="s">
         <v>15</v>
       </c>
@@ -1650,10 +3253,10 @@
       <c r="B29" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="28">
+      <c r="C29" s="22">
         <v>5</v>
       </c>
-      <c r="D29" s="28" t="s">
+      <c r="D29" s="22" t="s">
         <v>27</v>
       </c>
       <c r="E29" s="9" t="s">
@@ -1678,8 +3281,8 @@
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="26"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
       <c r="E30" s="6" t="s">
         <v>12</v>
       </c>
@@ -1702,8 +3305,8 @@
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="26"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
       <c r="E31" s="6" t="s">
         <v>13</v>
       </c>
@@ -1726,8 +3329,8 @@
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="26"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
       <c r="E32" s="6" t="s">
         <v>14</v>
       </c>
@@ -1750,8 +3353,8 @@
     </row>
     <row r="33" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="27"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
       <c r="E33" s="8" t="s">
         <v>15</v>
       </c>
@@ -1776,10 +3379,10 @@
       <c r="B34" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="28">
+      <c r="C34" s="22">
         <v>6</v>
       </c>
-      <c r="D34" s="28" t="s">
+      <c r="D34" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E34" s="9" t="s">
@@ -1804,8 +3407,8 @@
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B35" s="26"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
       <c r="E35" s="6" t="s">
         <v>12</v>
       </c>
@@ -1828,8 +3431,8 @@
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" s="26"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
       <c r="E36" s="6" t="s">
         <v>13</v>
       </c>
@@ -1852,8 +3455,8 @@
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B37" s="26"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
       <c r="E37" s="6" t="s">
         <v>14</v>
       </c>
@@ -1876,8 +3479,8 @@
     </row>
     <row r="38" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="27"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
       <c r="E38" s="8" t="s">
         <v>15</v>
       </c>
@@ -1902,10 +3505,10 @@
       <c r="B39" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="28">
-        <v>7</v>
-      </c>
-      <c r="D39" s="28" t="s">
+      <c r="C39" s="22">
+        <v>7</v>
+      </c>
+      <c r="D39" s="22" t="s">
         <v>26</v>
       </c>
       <c r="E39" s="9" t="s">
@@ -1924,8 +3527,8 @@
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B40" s="26"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
       <c r="E40" s="6" t="s">
         <v>12</v>
       </c>
@@ -1942,8 +3545,8 @@
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B41" s="26"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
       <c r="E41" s="6" t="s">
         <v>13</v>
       </c>
@@ -1960,8 +3563,8 @@
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B42" s="26"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
       <c r="E42" s="6" t="s">
         <v>14</v>
       </c>
@@ -1978,8 +3581,8 @@
     </row>
     <row r="43" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="27"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
       <c r="E43" s="8" t="s">
         <v>15</v>
       </c>
@@ -1996,22 +3599,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="D24:D28"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="D34:D38"/>
-    <mergeCell ref="D39:D43"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C39:C43"/>
     <mergeCell ref="F2:O2"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="B9:B13"/>
@@ -2021,13 +3608,29 @@
     <mergeCell ref="D9:D13"/>
     <mergeCell ref="D14:D18"/>
     <mergeCell ref="D19:D23"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="D24:D28"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="D39:D43"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C39:C43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEA68BA0-8738-49EF-838B-12AB78B9CDAD}">
   <dimension ref="B1:O43"/>
   <sheetViews>
@@ -2053,18 +3656,18 @@
       <c r="C2" s="11"/>
       <c r="D2" s="20"/>
       <c r="E2" s="19"/>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="24"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="30"/>
     </row>
     <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="12" t="s">
@@ -2114,10 +3717,10 @@
       <c r="B4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="22">
         <v>0</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="22" t="s">
         <v>28</v>
       </c>
       <c r="E4" s="5" t="s">
@@ -2138,8 +3741,8 @@
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="26"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
       <c r="E5" s="6" t="s">
         <v>12</v>
       </c>
@@ -2158,8 +3761,8 @@
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="26"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
       <c r="E6" s="6" t="s">
         <v>13</v>
       </c>
@@ -2178,8 +3781,8 @@
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="26"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
       <c r="E7" s="6" t="s">
         <v>14</v>
       </c>
@@ -2198,8 +3801,8 @@
     </row>
     <row r="8" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="27"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
       <c r="E8" s="8" t="s">
         <v>15</v>
       </c>
@@ -2220,10 +3823,10 @@
       <c r="B9" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="22">
         <v>1</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="9" t="s">
@@ -2252,8 +3855,8 @@
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="26"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
       <c r="E10" s="6" t="s">
         <v>12</v>
       </c>
@@ -2280,8 +3883,8 @@
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="26"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
       <c r="E11" s="6" t="s">
         <v>13</v>
       </c>
@@ -2308,8 +3911,8 @@
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="26"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
       <c r="E12" s="6" t="s">
         <v>14</v>
       </c>
@@ -2336,8 +3939,8 @@
     </row>
     <row r="13" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="27"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
       <c r="E13" s="8" t="s">
         <v>15</v>
       </c>
@@ -2370,10 +3973,10 @@
       <c r="B14" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="22">
         <v>2</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="22" t="s">
         <v>26</v>
       </c>
       <c r="E14" s="9" t="s">
@@ -2396,8 +3999,8 @@
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="26"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
       <c r="E15" s="6" t="s">
         <v>12</v>
       </c>
@@ -2418,8 +4021,8 @@
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="26"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
       <c r="E16" s="6" t="s">
         <v>13</v>
       </c>
@@ -2440,8 +4043,8 @@
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="26"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
       <c r="E17" s="6" t="s">
         <v>14</v>
       </c>
@@ -2462,8 +4065,8 @@
     </row>
     <row r="18" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="27"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
       <c r="E18" s="8" t="s">
         <v>15</v>
       </c>
@@ -2486,10 +4089,10 @@
       <c r="B19" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="28">
+      <c r="C19" s="22">
         <v>3</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="D19" s="22" t="s">
         <v>26</v>
       </c>
       <c r="E19" s="9" t="s">
@@ -2512,8 +4115,8 @@
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="26"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
       <c r="E20" s="6" t="s">
         <v>12</v>
       </c>
@@ -2534,8 +4137,8 @@
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="26"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
       <c r="E21" s="6" t="s">
         <v>13</v>
       </c>
@@ -2556,8 +4159,8 @@
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="26"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
       <c r="E22" s="6" t="s">
         <v>14</v>
       </c>
@@ -2578,8 +4181,8 @@
     </row>
     <row r="23" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="27"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
       <c r="E23" s="8" t="s">
         <v>15</v>
       </c>
@@ -2602,10 +4205,10 @@
       <c r="B24" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="28">
-        <v>4</v>
-      </c>
-      <c r="D24" s="28" t="s">
+      <c r="C24" s="22">
+        <v>4</v>
+      </c>
+      <c r="D24" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E24" s="9" t="s">
@@ -2636,8 +4239,8 @@
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="26"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
       <c r="E25" s="6" t="s">
         <v>12</v>
       </c>
@@ -2666,8 +4269,8 @@
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="26"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
       <c r="E26" s="6" t="s">
         <v>13</v>
       </c>
@@ -2696,8 +4299,8 @@
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="26"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
       <c r="E27" s="6" t="s">
         <v>14</v>
       </c>
@@ -2726,8 +4329,8 @@
     </row>
     <row r="28" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="27"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
       <c r="E28" s="8" t="s">
         <v>15</v>
       </c>
@@ -2758,10 +4361,10 @@
       <c r="B29" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="28">
+      <c r="C29" s="22">
         <v>5</v>
       </c>
-      <c r="D29" s="28" t="s">
+      <c r="D29" s="22" t="s">
         <v>27</v>
       </c>
       <c r="E29" s="9" t="s">
@@ -2786,8 +4389,8 @@
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="26"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
       <c r="E30" s="6" t="s">
         <v>12</v>
       </c>
@@ -2810,8 +4413,8 @@
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="26"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
       <c r="E31" s="6" t="s">
         <v>13</v>
       </c>
@@ -2834,8 +4437,8 @@
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="26"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
       <c r="E32" s="6" t="s">
         <v>14</v>
       </c>
@@ -2858,8 +4461,8 @@
     </row>
     <row r="33" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="27"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
       <c r="E33" s="8" t="s">
         <v>15</v>
       </c>
@@ -2884,10 +4487,10 @@
       <c r="B34" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="28">
+      <c r="C34" s="22">
         <v>6</v>
       </c>
-      <c r="D34" s="28" t="s">
+      <c r="D34" s="22" t="s">
         <v>26</v>
       </c>
       <c r="E34" s="9" t="s">
@@ -2906,8 +4509,8 @@
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B35" s="26"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
       <c r="E35" s="6" t="s">
         <v>12</v>
       </c>
@@ -2924,8 +4527,8 @@
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" s="26"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
       <c r="E36" s="6" t="s">
         <v>13</v>
       </c>
@@ -2942,8 +4545,8 @@
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B37" s="26"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
       <c r="E37" s="6" t="s">
         <v>14</v>
       </c>
@@ -2960,8 +4563,8 @@
     </row>
     <row r="38" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="27"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
       <c r="E38" s="8" t="s">
         <v>15</v>
       </c>
@@ -2980,10 +4583,10 @@
       <c r="B39" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="28">
-        <v>7</v>
-      </c>
-      <c r="D39" s="28" t="s">
+      <c r="C39" s="22">
+        <v>7</v>
+      </c>
+      <c r="D39" s="22" t="s">
         <v>26</v>
       </c>
       <c r="E39" s="9" t="s">
@@ -3002,8 +4605,8 @@
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B40" s="26"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
       <c r="E40" s="6" t="s">
         <v>12</v>
       </c>
@@ -3020,8 +4623,8 @@
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B41" s="26"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
       <c r="E41" s="6" t="s">
         <v>13</v>
       </c>
@@ -3038,8 +4641,8 @@
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B42" s="26"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
       <c r="E42" s="6" t="s">
         <v>14</v>
       </c>
@@ -3056,8 +4659,8 @@
     </row>
     <row r="43" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="27"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
       <c r="E43" s="8" t="s">
         <v>15</v>
       </c>
@@ -3074,6 +4677,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="F2:O2"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
     <mergeCell ref="D39:D43"/>
     <mergeCell ref="D4:D8"/>
     <mergeCell ref="B34:B38"/>
@@ -3090,22 +4702,13 @@
     <mergeCell ref="C19:C23"/>
     <mergeCell ref="B24:B28"/>
     <mergeCell ref="C24:C28"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="F2:O2"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E7C67C1-28FC-4DA9-865A-E09E71E0A33D}">
   <dimension ref="B1:O43"/>
   <sheetViews>
@@ -3113,7 +4716,7 @@
       <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3131,18 +4734,18 @@
       <c r="C2" s="11"/>
       <c r="D2" s="20"/>
       <c r="E2" s="19"/>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="24"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="30"/>
     </row>
     <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="12" t="s">
@@ -3192,10 +4795,10 @@
       <c r="B4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="22">
         <v>0</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="22" t="s">
         <v>28</v>
       </c>
       <c r="E4" s="5" t="s">
@@ -3216,8 +4819,8 @@
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="26"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
       <c r="E5" s="6" t="s">
         <v>12</v>
       </c>
@@ -3236,8 +4839,8 @@
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="26"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
       <c r="E6" s="6" t="s">
         <v>13</v>
       </c>
@@ -3256,8 +4859,8 @@
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="26"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
       <c r="E7" s="6" t="s">
         <v>14</v>
       </c>
@@ -3276,8 +4879,8 @@
     </row>
     <row r="8" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="27"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
       <c r="E8" s="8" t="s">
         <v>15</v>
       </c>
@@ -3298,10 +4901,10 @@
       <c r="B9" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="22">
         <v>1</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="22" t="s">
         <v>26</v>
       </c>
       <c r="E9" s="9" t="s">
@@ -3322,8 +4925,8 @@
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="26"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
       <c r="E10" s="6" t="s">
         <v>12</v>
       </c>
@@ -3342,8 +4945,8 @@
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="26"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
       <c r="E11" s="6" t="s">
         <v>13</v>
       </c>
@@ -3362,8 +4965,8 @@
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="26"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
       <c r="E12" s="6" t="s">
         <v>14</v>
       </c>
@@ -3382,8 +4985,8 @@
     </row>
     <row r="13" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="27"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
       <c r="E13" s="8" t="s">
         <v>15</v>
       </c>
@@ -3404,10 +5007,10 @@
       <c r="B14" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="22">
         <v>2</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E14" s="9" t="s">
@@ -3434,14 +5037,16 @@
       <c r="L14" s="3">
         <v>8</v>
       </c>
-      <c r="M14" s="3"/>
+      <c r="M14" s="3">
+        <v>8</v>
+      </c>
       <c r="N14" s="3"/>
       <c r="O14" s="9"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="26"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
       <c r="E15" s="6" t="s">
         <v>12</v>
       </c>
@@ -3466,14 +5071,16 @@
       <c r="L15" s="1">
         <v>11</v>
       </c>
-      <c r="M15" s="1"/>
+      <c r="M15" s="1">
+        <v>12</v>
+      </c>
       <c r="N15" s="1"/>
       <c r="O15" s="6"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="26"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
       <c r="E16" s="6" t="s">
         <v>13</v>
       </c>
@@ -3498,14 +5105,16 @@
       <c r="L16" s="1">
         <v>7</v>
       </c>
-      <c r="M16" s="1"/>
+      <c r="M16" s="1">
+        <v>8</v>
+      </c>
       <c r="N16" s="1"/>
       <c r="O16" s="6"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="26"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
       <c r="E17" s="6" t="s">
         <v>14</v>
       </c>
@@ -3530,14 +5139,16 @@
       <c r="L17" s="1">
         <v>5</v>
       </c>
-      <c r="M17" s="1"/>
+      <c r="M17" s="1">
+        <v>5</v>
+      </c>
       <c r="N17" s="1"/>
       <c r="O17" s="6"/>
     </row>
     <row r="18" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="27"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
       <c r="E18" s="8" t="s">
         <v>15</v>
       </c>
@@ -3562,7 +5173,9 @@
       <c r="L18" s="7">
         <v>0</v>
       </c>
-      <c r="M18" s="7"/>
+      <c r="M18" s="7">
+        <v>0</v>
+      </c>
       <c r="N18" s="7"/>
       <c r="O18" s="8"/>
     </row>
@@ -3570,10 +5183,10 @@
       <c r="B19" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="28">
+      <c r="C19" s="22">
         <v>3</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="D19" s="22" t="s">
         <v>27</v>
       </c>
       <c r="E19" s="9" t="s">
@@ -3600,8 +5213,8 @@
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="26"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
       <c r="E20" s="6" t="s">
         <v>12</v>
       </c>
@@ -3626,8 +5239,8 @@
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="26"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
       <c r="E21" s="6" t="s">
         <v>13</v>
       </c>
@@ -3652,8 +5265,8 @@
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="26"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
       <c r="E22" s="6" t="s">
         <v>14</v>
       </c>
@@ -3678,8 +5291,8 @@
     </row>
     <row r="23" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="27"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
       <c r="E23" s="8" t="s">
         <v>15</v>
       </c>
@@ -3706,10 +5319,10 @@
       <c r="B24" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="28">
-        <v>4</v>
-      </c>
-      <c r="D24" s="28" t="s">
+      <c r="C24" s="22">
+        <v>4</v>
+      </c>
+      <c r="D24" s="22" t="s">
         <v>26</v>
       </c>
       <c r="E24" s="9" t="s">
@@ -3730,8 +5343,8 @@
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="26"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
       <c r="E25" s="6" t="s">
         <v>12</v>
       </c>
@@ -3750,8 +5363,8 @@
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="26"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
       <c r="E26" s="6" t="s">
         <v>13</v>
       </c>
@@ -3770,8 +5383,8 @@
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="26"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
       <c r="E27" s="6" t="s">
         <v>14</v>
       </c>
@@ -3790,8 +5403,8 @@
     </row>
     <row r="28" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="27"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
       <c r="E28" s="8" t="s">
         <v>15</v>
       </c>
@@ -3812,10 +5425,10 @@
       <c r="B29" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="28">
+      <c r="C29" s="22">
         <v>5</v>
       </c>
-      <c r="D29" s="28" t="s">
+      <c r="D29" s="22" t="s">
         <v>27</v>
       </c>
       <c r="E29" s="9" t="s">
@@ -3838,8 +5451,8 @@
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="26"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
       <c r="E30" s="6" t="s">
         <v>12</v>
       </c>
@@ -3860,8 +5473,8 @@
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="26"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
       <c r="E31" s="6" t="s">
         <v>13</v>
       </c>
@@ -3882,8 +5495,8 @@
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="26"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
       <c r="E32" s="6" t="s">
         <v>14</v>
       </c>
@@ -3904,8 +5517,8 @@
     </row>
     <row r="33" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="27"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
       <c r="E33" s="8" t="s">
         <v>15</v>
       </c>
@@ -3928,10 +5541,10 @@
       <c r="B34" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="28">
+      <c r="C34" s="22">
         <v>6</v>
       </c>
-      <c r="D34" s="28" t="s">
+      <c r="D34" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E34" s="9" t="s">
@@ -3958,8 +5571,8 @@
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B35" s="26"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
       <c r="E35" s="6" t="s">
         <v>12</v>
       </c>
@@ -3984,8 +5597,8 @@
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" s="26"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
       <c r="E36" s="6" t="s">
         <v>13</v>
       </c>
@@ -4010,8 +5623,8 @@
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B37" s="26"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
       <c r="E37" s="6" t="s">
         <v>14</v>
       </c>
@@ -4036,8 +5649,8 @@
     </row>
     <row r="38" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="27"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
       <c r="E38" s="8" t="s">
         <v>15</v>
       </c>
@@ -4064,10 +5677,10 @@
       <c r="B39" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="28">
-        <v>7</v>
-      </c>
-      <c r="D39" s="28" t="s">
+      <c r="C39" s="22">
+        <v>7</v>
+      </c>
+      <c r="D39" s="22" t="s">
         <v>26</v>
       </c>
       <c r="E39" s="9" t="s">
@@ -4086,8 +5699,8 @@
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B40" s="26"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
       <c r="E40" s="6" t="s">
         <v>12</v>
       </c>
@@ -4104,8 +5717,8 @@
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B41" s="26"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
       <c r="E41" s="6" t="s">
         <v>13</v>
       </c>
@@ -4122,8 +5735,8 @@
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B42" s="26"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
       <c r="E42" s="6" t="s">
         <v>14</v>
       </c>
@@ -4140,8 +5753,8 @@
     </row>
     <row r="43" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="27"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
       <c r="E43" s="8" t="s">
         <v>15</v>
       </c>
@@ -4158,24 +5771,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="D34:D38"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="C39:C43"/>
-    <mergeCell ref="D39:D43"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="D24:D28"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="D14:D18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="D19:D23"/>
     <mergeCell ref="F2:O2"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="C4:C8"/>
@@ -4183,13 +5778,31 @@
     <mergeCell ref="B9:B13"/>
     <mergeCell ref="C9:C13"/>
     <mergeCell ref="D9:D13"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="D19:D23"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="D24:D28"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="C39:C43"/>
+    <mergeCell ref="D39:D43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{876169AB-6A82-4517-A556-4971CA85FD89}">
   <dimension ref="B1:O43"/>
   <sheetViews>
@@ -4197,7 +5810,7 @@
       <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4215,18 +5828,18 @@
       <c r="C2" s="11"/>
       <c r="D2" s="20"/>
       <c r="E2" s="19"/>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="24"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="30"/>
     </row>
     <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="12" t="s">
@@ -4276,10 +5889,10 @@
       <c r="B4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="22">
         <v>0</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="22" t="s">
         <v>28</v>
       </c>
       <c r="E4" s="5" t="s">
@@ -4300,8 +5913,8 @@
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="26"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
       <c r="E5" s="6" t="s">
         <v>12</v>
       </c>
@@ -4320,8 +5933,8 @@
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="26"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
       <c r="E6" s="6" t="s">
         <v>13</v>
       </c>
@@ -4340,8 +5953,8 @@
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="26"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
       <c r="E7" s="6" t="s">
         <v>14</v>
       </c>
@@ -4360,8 +5973,8 @@
     </row>
     <row r="8" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="27"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
       <c r="E8" s="8" t="s">
         <v>15</v>
       </c>
@@ -4382,10 +5995,10 @@
       <c r="B9" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="22">
         <v>1</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="22" t="s">
         <v>26</v>
       </c>
       <c r="E9" s="9" t="s">
@@ -4394,7 +6007,9 @@
       <c r="F9" s="18">
         <v>7</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="3">
+        <v>7</v>
+      </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -4406,15 +6021,17 @@
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="26"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
       <c r="E10" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="16">
         <v>3</v>
       </c>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1">
+        <v>4</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -4426,15 +6043,17 @@
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="26"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
       <c r="E11" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="16">
         <v>3</v>
       </c>
-      <c r="G11" s="1"/>
+      <c r="G11" s="1">
+        <v>3</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -4446,15 +6065,17 @@
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="26"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
       <c r="E12" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F12" s="16">
         <v>10</v>
       </c>
-      <c r="G12" s="1"/>
+      <c r="G12" s="1">
+        <v>11</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -4466,15 +6087,17 @@
     </row>
     <row r="13" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="27"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
       <c r="E13" s="8" t="s">
         <v>15</v>
       </c>
       <c r="F13" s="17">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="G13" s="7"/>
+      <c r="G13" s="7">
+        <v>-0.13</v>
+      </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
@@ -4488,10 +6111,10 @@
       <c r="B14" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="22">
         <v>2</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E14" s="9" t="s">
@@ -4524,8 +6147,8 @@
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="26"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
       <c r="E15" s="6" t="s">
         <v>12</v>
       </c>
@@ -4556,8 +6179,8 @@
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="26"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
       <c r="E16" s="6" t="s">
         <v>13</v>
       </c>
@@ -4588,8 +6211,8 @@
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="26"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
       <c r="E17" s="6" t="s">
         <v>14</v>
       </c>
@@ -4620,8 +6243,8 @@
     </row>
     <row r="18" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="27"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
       <c r="E18" s="8" t="s">
         <v>15</v>
       </c>
@@ -4654,10 +6277,10 @@
       <c r="B19" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="28">
+      <c r="C19" s="22">
         <v>3</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="D19" s="22" t="s">
         <v>27</v>
       </c>
       <c r="E19" s="9" t="s">
@@ -4684,8 +6307,8 @@
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="26"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
       <c r="E20" s="6" t="s">
         <v>12</v>
       </c>
@@ -4710,8 +6333,8 @@
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="26"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
       <c r="E21" s="6" t="s">
         <v>13</v>
       </c>
@@ -4736,8 +6359,8 @@
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="26"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
       <c r="E22" s="6" t="s">
         <v>14</v>
       </c>
@@ -4762,8 +6385,8 @@
     </row>
     <row r="23" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="27"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
       <c r="E23" s="8" t="s">
         <v>15</v>
       </c>
@@ -4790,10 +6413,10 @@
       <c r="B24" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="28">
-        <v>4</v>
-      </c>
-      <c r="D24" s="28" t="s">
+      <c r="C24" s="22">
+        <v>4</v>
+      </c>
+      <c r="D24" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E24" s="9" t="s">
@@ -4817,15 +6440,17 @@
       <c r="K24" s="3">
         <v>8</v>
       </c>
-      <c r="L24" s="3"/>
+      <c r="L24" s="3">
+        <v>8</v>
+      </c>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="9"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="26"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
       <c r="E25" s="6" t="s">
         <v>12</v>
       </c>
@@ -4847,15 +6472,17 @@
       <c r="K25" s="1">
         <v>8</v>
       </c>
-      <c r="L25" s="1"/>
+      <c r="L25" s="1">
+        <v>10</v>
+      </c>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="6"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="26"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
       <c r="E26" s="6" t="s">
         <v>13</v>
       </c>
@@ -4877,15 +6504,17 @@
       <c r="K26" s="1">
         <v>5</v>
       </c>
-      <c r="L26" s="1"/>
+      <c r="L26" s="1">
+        <v>5</v>
+      </c>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="6"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="26"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
       <c r="E27" s="6" t="s">
         <v>14</v>
       </c>
@@ -4907,15 +6536,17 @@
       <c r="K27" s="1">
         <v>5</v>
       </c>
-      <c r="L27" s="1"/>
+      <c r="L27" s="1">
+        <v>5</v>
+      </c>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="6"/>
     </row>
     <row r="28" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="27"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
       <c r="E28" s="8" t="s">
         <v>15</v>
       </c>
@@ -4937,7 +6568,9 @@
       <c r="K28" s="7">
         <v>-0.19</v>
       </c>
-      <c r="L28" s="7"/>
+      <c r="L28" s="7">
+        <v>-0.19</v>
+      </c>
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
       <c r="O28" s="8"/>
@@ -4946,10 +6579,10 @@
       <c r="B29" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="28">
+      <c r="C29" s="22">
         <v>5</v>
       </c>
-      <c r="D29" s="28" t="s">
+      <c r="D29" s="22" t="s">
         <v>26</v>
       </c>
       <c r="E29" s="9" t="s">
@@ -4968,8 +6601,8 @@
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="26"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
       <c r="E30" s="6" t="s">
         <v>12</v>
       </c>
@@ -4986,8 +6619,8 @@
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="26"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
       <c r="E31" s="6" t="s">
         <v>13</v>
       </c>
@@ -5004,8 +6637,8 @@
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="26"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
       <c r="E32" s="6" t="s">
         <v>14</v>
       </c>
@@ -5022,8 +6655,8 @@
     </row>
     <row r="33" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="27"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
       <c r="E33" s="8" t="s">
         <v>15</v>
       </c>
@@ -5042,10 +6675,10 @@
       <c r="B34" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="28">
+      <c r="C34" s="22">
         <v>6</v>
       </c>
-      <c r="D34" s="28" t="s">
+      <c r="D34" s="22" t="s">
         <v>27</v>
       </c>
       <c r="E34" s="9" t="s">
@@ -5066,8 +6699,8 @@
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B35" s="26"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
       <c r="E35" s="6" t="s">
         <v>12</v>
       </c>
@@ -5086,8 +6719,8 @@
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" s="26"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
       <c r="E36" s="6" t="s">
         <v>13</v>
       </c>
@@ -5106,8 +6739,8 @@
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B37" s="26"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
       <c r="E37" s="6" t="s">
         <v>14</v>
       </c>
@@ -5126,8 +6759,8 @@
     </row>
     <row r="38" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="27"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
       <c r="E38" s="8" t="s">
         <v>15</v>
       </c>
@@ -5148,10 +6781,10 @@
       <c r="B39" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="28">
-        <v>7</v>
-      </c>
-      <c r="D39" s="28" t="s">
+      <c r="C39" s="22">
+        <v>7</v>
+      </c>
+      <c r="D39" s="22" t="s">
         <v>26</v>
       </c>
       <c r="E39" s="9" t="s">
@@ -5170,8 +6803,8 @@
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B40" s="26"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
       <c r="E40" s="6" t="s">
         <v>12</v>
       </c>
@@ -5188,8 +6821,8 @@
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B41" s="26"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
       <c r="E41" s="6" t="s">
         <v>13</v>
       </c>
@@ -5206,8 +6839,8 @@
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B42" s="26"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
       <c r="E42" s="6" t="s">
         <v>14</v>
       </c>
@@ -5224,8 +6857,8 @@
     </row>
     <row r="43" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="27"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
       <c r="E43" s="8" t="s">
         <v>15</v>
       </c>
@@ -5242,24 +6875,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="D34:D38"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="C39:C43"/>
-    <mergeCell ref="D39:D43"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="D24:D28"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="D14:D18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="D19:D23"/>
     <mergeCell ref="F2:O2"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="C4:C8"/>
@@ -5267,13 +6882,31 @@
     <mergeCell ref="B9:B13"/>
     <mergeCell ref="C9:C13"/>
     <mergeCell ref="D9:D13"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="D19:D23"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="D24:D28"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="C39:C43"/>
+    <mergeCell ref="D39:D43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD0BF60E-CB02-494C-822F-8A8B7067F095}">
   <dimension ref="B1:O43"/>
   <sheetViews>
@@ -5281,7 +6914,7 @@
       <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5299,18 +6932,18 @@
       <c r="C2" s="11"/>
       <c r="D2" s="20"/>
       <c r="E2" s="19"/>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="24"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="30"/>
     </row>
     <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="12" t="s">
@@ -5360,10 +6993,10 @@
       <c r="B4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="22">
         <v>0</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="22" t="s">
         <v>28</v>
       </c>
       <c r="E4" s="5" t="s">
@@ -5384,8 +7017,8 @@
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="26"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
       <c r="E5" s="6" t="s">
         <v>12</v>
       </c>
@@ -5404,8 +7037,8 @@
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="26"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
       <c r="E6" s="6" t="s">
         <v>13</v>
       </c>
@@ -5424,8 +7057,8 @@
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="26"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
       <c r="E7" s="6" t="s">
         <v>14</v>
       </c>
@@ -5444,8 +7077,8 @@
     </row>
     <row r="8" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="27"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
       <c r="E8" s="8" t="s">
         <v>15</v>
       </c>
@@ -5466,10 +7099,10 @@
       <c r="B9" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="22">
         <v>1</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="22" t="s">
         <v>26</v>
       </c>
       <c r="E9" s="9" t="s">
@@ -5490,8 +7123,8 @@
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="26"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
       <c r="E10" s="6" t="s">
         <v>12</v>
       </c>
@@ -5510,8 +7143,8 @@
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="26"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
       <c r="E11" s="6" t="s">
         <v>13</v>
       </c>
@@ -5530,8 +7163,8 @@
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="26"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
       <c r="E12" s="6" t="s">
         <v>14</v>
       </c>
@@ -5550,8 +7183,8 @@
     </row>
     <row r="13" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="27"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
       <c r="E13" s="8" t="s">
         <v>15</v>
       </c>
@@ -5572,10 +7205,10 @@
       <c r="B14" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="22">
         <v>2</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E14" s="9" t="s">
@@ -5602,14 +7235,16 @@
       <c r="L14" s="3">
         <v>8</v>
       </c>
-      <c r="M14" s="3"/>
+      <c r="M14" s="3">
+        <v>8</v>
+      </c>
       <c r="N14" s="3"/>
       <c r="O14" s="9"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="26"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
       <c r="E15" s="6" t="s">
         <v>12</v>
       </c>
@@ -5634,14 +7269,16 @@
       <c r="L15" s="1">
         <v>11</v>
       </c>
-      <c r="M15" s="1"/>
+      <c r="M15" s="1">
+        <v>12</v>
+      </c>
       <c r="N15" s="1"/>
       <c r="O15" s="6"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="26"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
       <c r="E16" s="6" t="s">
         <v>13</v>
       </c>
@@ -5666,14 +7303,16 @@
       <c r="L16" s="1">
         <v>5</v>
       </c>
-      <c r="M16" s="1"/>
+      <c r="M16" s="1">
+        <v>5</v>
+      </c>
       <c r="N16" s="1"/>
       <c r="O16" s="6"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="26"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
       <c r="E17" s="6" t="s">
         <v>14</v>
       </c>
@@ -5698,14 +7337,16 @@
       <c r="L17" s="1">
         <v>12</v>
       </c>
-      <c r="M17" s="1"/>
+      <c r="M17" s="1">
+        <v>12</v>
+      </c>
       <c r="N17" s="1"/>
       <c r="O17" s="6"/>
     </row>
     <row r="18" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="27"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
       <c r="E18" s="8" t="s">
         <v>15</v>
       </c>
@@ -5730,7 +7371,9 @@
       <c r="L18" s="7">
         <v>0</v>
       </c>
-      <c r="M18" s="7"/>
+      <c r="M18" s="7">
+        <v>0</v>
+      </c>
       <c r="N18" s="7"/>
       <c r="O18" s="8"/>
     </row>
@@ -5738,10 +7381,10 @@
       <c r="B19" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="28">
+      <c r="C19" s="22">
         <v>3</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="D19" s="22" t="s">
         <v>27</v>
       </c>
       <c r="E19" s="9" t="s">
@@ -5768,8 +7411,8 @@
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="26"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
       <c r="E20" s="6" t="s">
         <v>12</v>
       </c>
@@ -5794,8 +7437,8 @@
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="26"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
       <c r="E21" s="6" t="s">
         <v>13</v>
       </c>
@@ -5820,8 +7463,8 @@
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="26"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
       <c r="E22" s="6" t="s">
         <v>14</v>
       </c>
@@ -5846,8 +7489,8 @@
     </row>
     <row r="23" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="27"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
       <c r="E23" s="8" t="s">
         <v>15</v>
       </c>
@@ -5874,10 +7517,10 @@
       <c r="B24" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="28">
-        <v>4</v>
-      </c>
-      <c r="D24" s="28" t="s">
+      <c r="C24" s="22">
+        <v>4</v>
+      </c>
+      <c r="D24" s="22" t="s">
         <v>26</v>
       </c>
       <c r="E24" s="9" t="s">
@@ -5896,8 +7539,8 @@
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="26"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
       <c r="E25" s="6" t="s">
         <v>12</v>
       </c>
@@ -5914,8 +7557,8 @@
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="26"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
       <c r="E26" s="6" t="s">
         <v>13</v>
       </c>
@@ -5932,8 +7575,8 @@
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="26"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
       <c r="E27" s="6" t="s">
         <v>14</v>
       </c>
@@ -5950,8 +7593,8 @@
     </row>
     <row r="28" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="27"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
       <c r="E28" s="8" t="s">
         <v>15</v>
       </c>
@@ -5970,10 +7613,10 @@
       <c r="B29" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="28">
+      <c r="C29" s="22">
         <v>5</v>
       </c>
-      <c r="D29" s="28" t="s">
+      <c r="D29" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E29" s="9" t="s">
@@ -6004,8 +7647,8 @@
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="26"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
       <c r="E30" s="6" t="s">
         <v>12</v>
       </c>
@@ -6034,8 +7677,8 @@
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="26"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
       <c r="E31" s="6" t="s">
         <v>13</v>
       </c>
@@ -6064,8 +7707,8 @@
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="26"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
       <c r="E32" s="6" t="s">
         <v>14</v>
       </c>
@@ -6094,8 +7737,8 @@
     </row>
     <row r="33" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="27"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
       <c r="E33" s="8" t="s">
         <v>15</v>
       </c>
@@ -6126,10 +7769,10 @@
       <c r="B34" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="28">
+      <c r="C34" s="22">
         <v>6</v>
       </c>
-      <c r="D34" s="28" t="s">
+      <c r="D34" s="22" t="s">
         <v>27</v>
       </c>
       <c r="E34" s="9" t="s">
@@ -6148,8 +7791,8 @@
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B35" s="26"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
       <c r="E35" s="6" t="s">
         <v>12</v>
       </c>
@@ -6166,8 +7809,8 @@
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" s="26"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
       <c r="E36" s="6" t="s">
         <v>13</v>
       </c>
@@ -6184,8 +7827,8 @@
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B37" s="26"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
       <c r="E37" s="6" t="s">
         <v>14</v>
       </c>
@@ -6202,8 +7845,8 @@
     </row>
     <row r="38" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="27"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
       <c r="E38" s="8" t="s">
         <v>15</v>
       </c>
@@ -6222,10 +7865,10 @@
       <c r="B39" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C39" s="28">
-        <v>7</v>
-      </c>
-      <c r="D39" s="28" t="s">
+      <c r="C39" s="22">
+        <v>7</v>
+      </c>
+      <c r="D39" s="22" t="s">
         <v>26</v>
       </c>
       <c r="E39" s="9" t="s">
@@ -6244,8 +7887,8 @@
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B40" s="26"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
       <c r="E40" s="6" t="s">
         <v>12</v>
       </c>
@@ -6262,8 +7905,8 @@
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B41" s="26"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
       <c r="E41" s="6" t="s">
         <v>13</v>
       </c>
@@ -6280,8 +7923,8 @@
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B42" s="26"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
       <c r="E42" s="6" t="s">
         <v>14</v>
       </c>
@@ -6298,8 +7941,8 @@
     </row>
     <row r="43" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="27"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
       <c r="E43" s="8" t="s">
         <v>15</v>
       </c>
@@ -6316,24 +7959,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="D34:D38"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="C39:C43"/>
-    <mergeCell ref="D39:D43"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="D24:D28"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="D14:D18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="D19:D23"/>
     <mergeCell ref="F2:O2"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="C4:C8"/>
@@ -6341,13 +7966,31 @@
     <mergeCell ref="B9:B13"/>
     <mergeCell ref="C9:C13"/>
     <mergeCell ref="D9:D13"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="D19:D23"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="D24:D28"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="C39:C43"/>
+    <mergeCell ref="D39:D43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BA48A5B-8FE5-4E03-81C1-683F605FF995}">
   <dimension ref="B1:O43"/>
   <sheetViews>
@@ -6355,7 +7998,7 @@
       <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6373,18 +8016,18 @@
       <c r="C2" s="11"/>
       <c r="D2" s="20"/>
       <c r="E2" s="19"/>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="24"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="30"/>
     </row>
     <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="12" t="s">
@@ -6434,10 +8077,10 @@
       <c r="B4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="22">
         <v>0</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="22" t="s">
         <v>28</v>
       </c>
       <c r="E4" s="5" t="s">
@@ -6458,8 +8101,8 @@
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="26"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
       <c r="E5" s="6" t="s">
         <v>12</v>
       </c>
@@ -6478,8 +8121,8 @@
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="26"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
       <c r="E6" s="6" t="s">
         <v>13</v>
       </c>
@@ -6498,8 +8141,8 @@
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="26"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
       <c r="E7" s="6" t="s">
         <v>14</v>
       </c>
@@ -6518,8 +8161,8 @@
     </row>
     <row r="8" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="27"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
       <c r="E8" s="8" t="s">
         <v>15</v>
       </c>
@@ -6540,10 +8183,10 @@
       <c r="B9" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="22">
         <v>1</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="9" t="s">
@@ -6572,8 +8215,8 @@
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="26"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
       <c r="E10" s="6" t="s">
         <v>12</v>
       </c>
@@ -6600,8 +8243,8 @@
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="26"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
       <c r="E11" s="6" t="s">
         <v>13</v>
       </c>
@@ -6628,8 +8271,8 @@
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="26"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
       <c r="E12" s="6" t="s">
         <v>14</v>
       </c>
@@ -6656,8 +8299,8 @@
     </row>
     <row r="13" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="27"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
       <c r="E13" s="8" t="s">
         <v>15</v>
       </c>
@@ -6686,10 +8329,10 @@
       <c r="B14" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="22">
         <v>2</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="22" t="s">
         <v>27</v>
       </c>
       <c r="E14" s="9" t="s">
@@ -6707,7 +8350,9 @@
       <c r="I14" s="3">
         <v>18</v>
       </c>
-      <c r="J14" s="3"/>
+      <c r="J14" s="3">
+        <v>19</v>
+      </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -6716,8 +8361,8 @@
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="26"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
       <c r="E15" s="6" t="s">
         <v>12</v>
       </c>
@@ -6733,7 +8378,9 @@
       <c r="I15" s="1">
         <v>4</v>
       </c>
-      <c r="J15" s="1"/>
+      <c r="J15" s="1">
+        <v>4</v>
+      </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -6742,8 +8389,8 @@
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="26"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
       <c r="E16" s="6" t="s">
         <v>13</v>
       </c>
@@ -6759,7 +8406,9 @@
       <c r="I16" s="1">
         <v>6</v>
       </c>
-      <c r="J16" s="1"/>
+      <c r="J16" s="1">
+        <v>7</v>
+      </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -6768,8 +8417,8 @@
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="26"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
       <c r="E17" s="6" t="s">
         <v>14</v>
       </c>
@@ -6785,7 +8434,9 @@
       <c r="I17" s="1">
         <v>4</v>
       </c>
-      <c r="J17" s="1"/>
+      <c r="J17" s="1">
+        <v>4</v>
+      </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -6794,8 +8445,8 @@
     </row>
     <row r="18" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="27"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
       <c r="E18" s="8" t="s">
         <v>15</v>
       </c>
@@ -6811,7 +8462,9 @@
       <c r="I18" s="7">
         <v>-0.13</v>
       </c>
-      <c r="J18" s="7"/>
+      <c r="J18" s="7">
+        <v>-0.13</v>
+      </c>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
@@ -6822,17 +8475,21 @@
       <c r="B19" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="28">
+      <c r="C19" s="22">
         <v>3</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="D19" s="22" t="s">
         <v>26</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="3"/>
+      <c r="F19" s="18">
+        <v>8</v>
+      </c>
+      <c r="G19" s="3">
+        <v>11</v>
+      </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
@@ -6844,13 +8501,17 @@
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="26"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
       <c r="E20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="1"/>
+      <c r="F20" s="16">
+        <v>3</v>
+      </c>
+      <c r="G20" s="1">
+        <v>4</v>
+      </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -6862,13 +8523,17 @@
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="26"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
       <c r="E21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="1"/>
+      <c r="F21" s="16">
+        <v>3</v>
+      </c>
+      <c r="G21" s="1">
+        <v>4</v>
+      </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -6880,13 +8545,17 @@
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="26"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
       <c r="E22" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="1"/>
+      <c r="F22" s="16">
+        <v>3</v>
+      </c>
+      <c r="G22" s="1">
+        <v>4</v>
+      </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -6898,13 +8567,17 @@
     </row>
     <row r="23" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="27"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
       <c r="E23" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="17"/>
-      <c r="G23" s="7"/>
+      <c r="F23" s="17">
+        <v>-0.48</v>
+      </c>
+      <c r="G23" s="7">
+        <v>-0.52</v>
+      </c>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
@@ -6918,10 +8591,10 @@
       <c r="B24" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="28">
-        <v>4</v>
-      </c>
-      <c r="D24" s="28" t="s">
+      <c r="C24" s="22">
+        <v>4</v>
+      </c>
+      <c r="D24" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E24" s="9" t="s">
@@ -6954,8 +8627,8 @@
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="26"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
       <c r="E25" s="6" t="s">
         <v>12</v>
       </c>
@@ -6986,8 +8659,8 @@
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="26"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
       <c r="E26" s="6" t="s">
         <v>13</v>
       </c>
@@ -7018,8 +8691,8 @@
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="26"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
       <c r="E27" s="6" t="s">
         <v>14</v>
       </c>
@@ -7050,8 +8723,8 @@
     </row>
     <row r="28" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="27"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
       <c r="E28" s="8" t="s">
         <v>15</v>
       </c>
@@ -7084,10 +8757,10 @@
       <c r="B29" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="28">
+      <c r="C29" s="22">
         <v>5</v>
       </c>
-      <c r="D29" s="28" t="s">
+      <c r="D29" s="22" t="s">
         <v>27</v>
       </c>
       <c r="E29" s="9" t="s">
@@ -7112,8 +8785,8 @@
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="26"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
       <c r="E30" s="6" t="s">
         <v>12</v>
       </c>
@@ -7136,8 +8809,8 @@
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="26"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
       <c r="E31" s="6" t="s">
         <v>13</v>
       </c>
@@ -7160,8 +8833,8 @@
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="26"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
       <c r="E32" s="6" t="s">
         <v>14</v>
       </c>
@@ -7184,8 +8857,8 @@
     </row>
     <row r="33" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="27"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
       <c r="E33" s="8" t="s">
         <v>15</v>
       </c>
@@ -7210,10 +8883,10 @@
       <c r="B34" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="C34" s="28">
+      <c r="C34" s="22">
         <v>6</v>
       </c>
-      <c r="D34" s="28" t="s">
+      <c r="D34" s="22" t="s">
         <v>26</v>
       </c>
       <c r="E34" s="9" t="s">
@@ -7232,8 +8905,8 @@
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B35" s="26"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
       <c r="E35" s="6" t="s">
         <v>12</v>
       </c>
@@ -7250,8 +8923,8 @@
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" s="26"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
       <c r="E36" s="6" t="s">
         <v>13</v>
       </c>
@@ -7268,8 +8941,8 @@
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B37" s="26"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
       <c r="E37" s="6" t="s">
         <v>14</v>
       </c>
@@ -7286,8 +8959,8 @@
     </row>
     <row r="38" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="27"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
       <c r="E38" s="8" t="s">
         <v>15</v>
       </c>
@@ -7306,10 +8979,10 @@
       <c r="B39" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C39" s="28">
-        <v>7</v>
-      </c>
-      <c r="D39" s="28" t="s">
+      <c r="C39" s="22">
+        <v>7</v>
+      </c>
+      <c r="D39" s="22" t="s">
         <v>26</v>
       </c>
       <c r="E39" s="9" t="s">
@@ -7328,8 +9001,8 @@
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B40" s="26"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
       <c r="E40" s="6" t="s">
         <v>12</v>
       </c>
@@ -7346,8 +9019,8 @@
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B41" s="26"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
       <c r="E41" s="6" t="s">
         <v>13</v>
       </c>
@@ -7364,8 +9037,8 @@
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B42" s="26"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
       <c r="E42" s="6" t="s">
         <v>14</v>
       </c>
@@ -7382,8 +9055,8 @@
     </row>
     <row r="43" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="27"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
       <c r="E43" s="8" t="s">
         <v>15</v>
       </c>
@@ -7400,24 +9073,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="D34:D38"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="C39:C43"/>
-    <mergeCell ref="D39:D43"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="D24:D28"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="D14:D18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="D19:D23"/>
     <mergeCell ref="F2:O2"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="C4:C8"/>
@@ -7425,6 +9080,24 @@
     <mergeCell ref="B9:B13"/>
     <mergeCell ref="C9:C13"/>
     <mergeCell ref="D9:D13"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="D19:D23"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="D24:D28"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="C39:C43"/>
+    <mergeCell ref="D39:D43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
